--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,37 +430,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.879</v>
+        <v>-13.74</v>
       </c>
       <c r="C2" t="n">
-        <v>3.574</v>
+        <v>-5.307</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.395</v>
+        <v>-19.793</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.077</v>
+        <v>-2.772</v>
       </c>
       <c r="F2" t="n">
-        <v>9.121</v>
+        <v>-10.347</v>
       </c>
       <c r="G2" t="n">
-        <v>1.042</v>
+        <v>-7.474</v>
       </c>
       <c r="H2" t="n">
-        <v>2.805</v>
+        <v>-10.866</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.717</v>
+        <v>-7.366</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>-1.97</v>
       </c>
       <c r="K2" t="n">
-        <v>9.369999999999999</v>
+        <v>-11.217</v>
       </c>
       <c r="L2" t="n">
-        <v>9.747999999999999</v>
+        <v>-6.293</v>
       </c>
     </row>
     <row r="3">
@@ -470,37 +470,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.026</v>
+        <v>-15.363</v>
       </c>
       <c r="C3" t="n">
-        <v>6.015</v>
+        <v>-5.636</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.326</v>
+        <v>-21.774</v>
       </c>
       <c r="E3" t="n">
-        <v>-27.539</v>
+        <v>5.745</v>
       </c>
       <c r="F3" t="n">
-        <v>12.436</v>
+        <v>-9.612</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.399</v>
+        <v>-4.655</v>
       </c>
       <c r="H3" t="n">
-        <v>7.55</v>
+        <v>-6.598</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.235</v>
+        <v>2.533</v>
       </c>
       <c r="J3" t="n">
-        <v>8.843999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="K3" t="n">
-        <v>14.062</v>
+        <v>-3.924</v>
       </c>
       <c r="L3" t="n">
-        <v>9.747999999999999</v>
+        <v>-2.214</v>
       </c>
     </row>
     <row r="4">
@@ -510,37 +510,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.206</v>
+        <v>-13.807</v>
       </c>
       <c r="C4" t="n">
-        <v>31.78</v>
+        <v>-5.562</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.572</v>
+        <v>-24.224</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.87</v>
+        <v>0.825</v>
       </c>
       <c r="F4" t="n">
-        <v>44.183</v>
+        <v>-9.202</v>
       </c>
       <c r="G4" t="n">
-        <v>1.187</v>
+        <v>-5.167</v>
       </c>
       <c r="H4" t="n">
-        <v>40.116</v>
+        <v>-7.841</v>
       </c>
       <c r="I4" t="n">
-        <v>13.577</v>
+        <v>-0.593</v>
       </c>
       <c r="J4" t="n">
-        <v>15.397</v>
+        <v>-2.782</v>
       </c>
       <c r="K4" t="n">
-        <v>11.722</v>
+        <v>-7.328</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.258</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="5">
@@ -550,37 +550,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.46</v>
+        <v>-13.424</v>
       </c>
       <c r="C5" t="n">
-        <v>28.865</v>
+        <v>10.607</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.197</v>
+        <v>-29.568</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.983</v>
+        <v>22.34</v>
       </c>
       <c r="F5" t="n">
-        <v>35.523</v>
+        <v>2.433</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.260999999999999</v>
+        <v>5.527</v>
       </c>
       <c r="H5" t="n">
-        <v>26.444</v>
+        <v>14.033</v>
       </c>
       <c r="I5" t="n">
-        <v>8.236000000000001</v>
+        <v>-76.22499999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>12.029</v>
+        <v>6.107</v>
       </c>
       <c r="K5" t="n">
-        <v>13.604</v>
+        <v>13.438</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.535</v>
+        <v>-11.549</v>
       </c>
     </row>
     <row r="6">
@@ -590,34 +590,38 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.84</v>
+        <v>-17.161</v>
       </c>
       <c r="C6" t="n">
-        <v>57.002</v>
+        <v>34.593</v>
       </c>
       <c r="D6" t="n">
-        <v>-16.388</v>
+        <v>14.897</v>
       </c>
       <c r="E6" t="n">
-        <v>55.392</v>
+        <v>-7.182</v>
       </c>
       <c r="F6" t="n">
-        <v>89.843</v>
+        <v>40.312</v>
       </c>
       <c r="G6" t="n">
-        <v>30.35</v>
+        <v>-9.246</v>
       </c>
       <c r="H6" t="n">
-        <v>18.483</v>
+        <v>-17.719</v>
       </c>
       <c r="I6" t="n">
-        <v>19.924</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>-499.751</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.991</v>
+      </c>
       <c r="K6" t="n">
-        <v>43.759</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>57.695</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-10.639</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -626,34 +630,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.516</v>
+        <v>-4.178</v>
       </c>
       <c r="C7" t="n">
-        <v>11.52</v>
+        <v>6.967</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.234</v>
+        <v>3.198</v>
       </c>
       <c r="E7" t="n">
-        <v>11.243</v>
+        <v>-1.675</v>
       </c>
       <c r="F7" t="n">
-        <v>16.76</v>
+        <v>7.981</v>
       </c>
       <c r="G7" t="n">
-        <v>6.617</v>
+        <v>-2.175</v>
       </c>
       <c r="H7" t="n">
-        <v>4.185</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>-4.325</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3.42</v>
+      </c>
       <c r="K7" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>10.878</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2.518</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -662,37 +668,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73057.82000000001</v>
+        <v>64367.21</v>
       </c>
       <c r="C8" t="n">
-        <v>171460.08</v>
+        <v>166301.59</v>
       </c>
       <c r="D8" t="n">
-        <v>83349.36</v>
+        <v>66788.39</v>
       </c>
       <c r="E8" t="n">
-        <v>65589.95</v>
+        <v>46738.05</v>
       </c>
       <c r="F8" t="n">
-        <v>172543.04</v>
+        <v>198680.39</v>
       </c>
       <c r="G8" t="n">
-        <v>159377.64</v>
+        <v>135461.86</v>
       </c>
       <c r="H8" t="n">
-        <v>153183.81</v>
+        <v>144106.07</v>
       </c>
       <c r="I8" t="n">
-        <v>78237.25999999999</v>
+        <v>74203.16</v>
       </c>
       <c r="J8" t="n">
-        <v>58397.01</v>
+        <v>48487.82</v>
       </c>
       <c r="K8" t="n">
-        <v>206584.12</v>
+        <v>260273.99</v>
       </c>
       <c r="L8" t="n">
-        <v>60466.84</v>
+        <v>22371.09</v>
       </c>
     </row>
     <row r="9">
@@ -702,37 +708,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.729</v>
+        <v>0.722</v>
       </c>
       <c r="C9" t="n">
-        <v>1.013</v>
+        <v>0.996</v>
       </c>
       <c r="D9" t="n">
-        <v>1.159</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.619</v>
       </c>
       <c r="F9" t="n">
         <v>0.917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="H9" t="n">
-        <v>0.853</v>
+        <v>0.986</v>
       </c>
       <c r="I9" t="n">
-        <v>0.475</v>
+        <v>-0.028</v>
       </c>
       <c r="J9" t="n">
-        <v>0.863</v>
+        <v>0.663</v>
       </c>
       <c r="K9" t="n">
-        <v>1.136</v>
+        <v>1.101</v>
       </c>
       <c r="L9" t="n">
-        <v>0.667</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="10">
@@ -742,34 +748,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.199</v>
+        <v>-10.318</v>
       </c>
       <c r="C10" t="n">
-        <v>3.441</v>
+        <v>-1.008</v>
       </c>
       <c r="D10" t="n">
-        <v>-13.22</v>
+        <v>-4.394</v>
       </c>
       <c r="E10" t="n">
-        <v>5.996</v>
+        <v>-7.122</v>
       </c>
       <c r="F10" t="n">
-        <v>9.275</v>
+        <v>0.539</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.001</v>
+        <v>-10.152</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.901</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.252</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>-12.231</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>-2.324</v>
+      </c>
       <c r="K10" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>2.203</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-6.953</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,34 +786,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.063</v>
+        <v>-31.689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349</v>
+        <v>34.964</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.11</v>
+        <v>3.146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.129</v>
+        <v>-11.166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.447</v>
+        <v>45.694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06900000000000001</v>
+        <v>-16.241</v>
       </c>
       <c r="H11" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>-25.072</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>17.888</v>
+      </c>
       <c r="K11" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>49.357</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-23.774</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -814,34 +824,36 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.065</v>
+        <v>-0.076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.096</v>
+        <v>0.057</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.052</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17</v>
+        <v>-0.048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.163</v>
+        <v>0.073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.051</v>
+        <v>-0.035</v>
       </c>
       <c r="H12" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>-0.057</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.032</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.082</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -850,37 +862,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-64.979</v>
+        <v>-35.044</v>
       </c>
       <c r="C13" t="n">
-        <v>-28.862</v>
+        <v>-25.478</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.025</v>
+        <v>-36.952</v>
       </c>
       <c r="E13" t="n">
-        <v>-55.497</v>
+        <v>-48.448</v>
       </c>
       <c r="F13" t="n">
-        <v>-24.889</v>
+        <v>-21.505</v>
       </c>
       <c r="G13" t="n">
-        <v>-49.197</v>
+        <v>-26.76</v>
       </c>
       <c r="H13" t="n">
-        <v>-41.752</v>
+        <v>-43.575</v>
       </c>
       <c r="I13" t="n">
-        <v>-75.009</v>
+        <v>-1369.897</v>
       </c>
       <c r="J13" t="n">
-        <v>-22.591</v>
+        <v>-23.868</v>
       </c>
       <c r="K13" t="n">
-        <v>-44.589</v>
+        <v>-33.072</v>
       </c>
       <c r="L13" t="n">
-        <v>-23.342</v>
+        <v>-22.812</v>
       </c>
     </row>
     <row r="14">
@@ -890,37 +902,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.476</v>
+        <v>17.296</v>
       </c>
       <c r="C14" t="n">
-        <v>27.256</v>
+        <v>16.216</v>
       </c>
       <c r="D14" t="n">
-        <v>54.782</v>
+        <v>60.363</v>
       </c>
       <c r="E14" t="n">
-        <v>72.72</v>
+        <v>26.659</v>
       </c>
       <c r="F14" t="n">
-        <v>29.31</v>
+        <v>14.628</v>
       </c>
       <c r="G14" t="n">
-        <v>36.7</v>
+        <v>21.41</v>
       </c>
       <c r="H14" t="n">
-        <v>41.211</v>
+        <v>22.445</v>
       </c>
       <c r="I14" t="n">
-        <v>83.554</v>
+        <v>631.391</v>
       </c>
       <c r="J14" t="n">
-        <v>27.697</v>
+        <v>11.861</v>
       </c>
       <c r="K14" t="n">
-        <v>27.346</v>
+        <v>19.415</v>
       </c>
       <c r="L14" t="n">
-        <v>17.229</v>
+        <v>16.082</v>
       </c>
     </row>
     <row r="15">
@@ -930,37 +942,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.021</v>
+        <v>0.201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24</v>
+        <v>0.622</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004</v>
+        <v>0.067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.153</v>
+        <v>0.666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.105</v>
+        <v>0.32</v>
       </c>
       <c r="H15" t="n">
-        <v>0.061</v>
+        <v>0.252</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.141</v>
+        <v>0.672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.332</v>
+        <v>0.663</v>
       </c>
       <c r="L15" t="n">
-        <v>0.145</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="16">
@@ -970,37 +982,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.317</v>
+        <v>6.14</v>
       </c>
       <c r="C16" t="n">
-        <v>8.08</v>
+        <v>7.975</v>
       </c>
       <c r="D16" t="n">
-        <v>8.986000000000001</v>
+        <v>7.592</v>
       </c>
       <c r="E16" t="n">
-        <v>5.247</v>
+        <v>5.447</v>
       </c>
       <c r="F16" t="n">
-        <v>7.485</v>
+        <v>7.442</v>
       </c>
       <c r="G16" t="n">
-        <v>7.618</v>
+        <v>7.976</v>
       </c>
       <c r="H16" t="n">
-        <v>7.086</v>
+        <v>7.906</v>
       </c>
       <c r="I16" t="n">
-        <v>4.742</v>
+        <v>1.114</v>
       </c>
       <c r="J16" t="n">
-        <v>7.15</v>
+        <v>5.745</v>
       </c>
       <c r="K16" t="n">
-        <v>8.843</v>
+        <v>8.676</v>
       </c>
       <c r="L16" t="n">
-        <v>5.932</v>
+        <v>4.435</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -430,37 +430,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.991</v>
+        <v>11.211</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.231</v>
+        <v>8.964</v>
       </c>
       <c r="D2" t="n">
-        <v>1.394</v>
+        <v>23.766</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.514</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.335</v>
+        <v>7.802</v>
       </c>
       <c r="G2" t="n">
-        <v>1.222</v>
+        <v>18.363</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.655</v>
+        <v>-5.885</v>
       </c>
       <c r="I2" t="n">
-        <v>1.538</v>
+        <v>0.792</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.21</v>
+        <v>12.151</v>
       </c>
       <c r="K2" t="n">
-        <v>1.392</v>
+        <v>17.342</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.343</v>
+        <v>4.389</v>
       </c>
     </row>
     <row r="3">
@@ -470,37 +470,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.714</v>
+        <v>-14.854</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.381</v>
+        <v>-10.583</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.186</v>
+        <v>-22.484</v>
       </c>
       <c r="E3" t="n">
-        <v>-27.673</v>
+        <v>-15.176</v>
       </c>
       <c r="F3" t="n">
-        <v>-28.495</v>
+        <v>-20.35</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.009</v>
+        <v>-9.968999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>-51.589</v>
+        <v>-41.747</v>
       </c>
       <c r="I3" t="n">
-        <v>-26.55</v>
+        <v>-25.836</v>
       </c>
       <c r="J3" t="n">
-        <v>-13.176</v>
+        <v>-2.001</v>
       </c>
       <c r="K3" t="n">
-        <v>-22.198</v>
+        <v>-6.967</v>
       </c>
       <c r="L3" t="n">
-        <v>-19.747</v>
+        <v>-16.002</v>
       </c>
     </row>
     <row r="4">
@@ -510,37 +510,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.657</v>
+        <v>-13.865</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.223</v>
+        <v>-11.698</v>
       </c>
       <c r="D4" t="n">
-        <v>-42.442</v>
+        <v>-27.619</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.186</v>
+        <v>-11.852</v>
       </c>
       <c r="F4" t="n">
-        <v>-27.166</v>
+        <v>-18.457</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.571</v>
+        <v>-8.442</v>
       </c>
       <c r="H4" t="n">
-        <v>-49.816</v>
+        <v>-39.783</v>
       </c>
       <c r="I4" t="n">
-        <v>-26.318</v>
+        <v>-21.646</v>
       </c>
       <c r="J4" t="n">
-        <v>-13.7</v>
+        <v>-3.654</v>
       </c>
       <c r="K4" t="n">
-        <v>-18.129</v>
+        <v>-3.397</v>
       </c>
       <c r="L4" t="n">
-        <v>-18.622</v>
+        <v>-14.992</v>
       </c>
     </row>
     <row r="5">
@@ -550,37 +550,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-27.856</v>
+        <v>-16.776</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.152</v>
+        <v>-6.244</v>
       </c>
       <c r="D5" t="n">
-        <v>-47.914</v>
+        <v>-33.389</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.853</v>
+        <v>3.789</v>
       </c>
       <c r="F5" t="n">
-        <v>-28.444</v>
+        <v>-14.057</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.827</v>
+        <v>3.085</v>
       </c>
       <c r="H5" t="n">
-        <v>-44.209</v>
+        <v>-32.447</v>
       </c>
       <c r="I5" t="n">
-        <v>-14.813</v>
+        <v>-9.157</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.065</v>
+        <v>3.088</v>
       </c>
       <c r="K5" t="n">
-        <v>-12.805</v>
+        <v>4.097</v>
       </c>
       <c r="L5" t="n">
-        <v>-26.27</v>
+        <v>-21.774</v>
       </c>
     </row>
     <row r="6">
@@ -590,37 +590,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.706</v>
+        <v>-11.972</v>
       </c>
       <c r="C6" t="n">
-        <v>15.123</v>
+        <v>41.552</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.727</v>
+        <v>-33.852</v>
       </c>
       <c r="E6" t="n">
-        <v>-33.291</v>
+        <v>47.72</v>
       </c>
       <c r="F6" t="n">
-        <v>2.578</v>
+        <v>32.347</v>
       </c>
       <c r="G6" t="n">
-        <v>-21.964</v>
+        <v>18.699</v>
       </c>
       <c r="H6" t="n">
-        <v>-55.195</v>
+        <v>-36.761</v>
       </c>
       <c r="I6" t="n">
-        <v>-382.417</v>
+        <v>0.484</v>
       </c>
       <c r="J6" t="n">
-        <v>4.318</v>
+        <v>18.361</v>
       </c>
       <c r="K6" t="n">
-        <v>27.961</v>
+        <v>76.773</v>
       </c>
       <c r="L6" t="n">
-        <v>-26.325</v>
+        <v>-20.755</v>
       </c>
     </row>
     <row r="7">
@@ -630,35 +630,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.077</v>
+        <v>-2.754</v>
       </c>
       <c r="C7" t="n">
-        <v>3.161</v>
+        <v>7.906</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.963</v>
+        <v>-8.651</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.555999999999999</v>
+        <v>8.917999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5639999999999999</v>
+        <v>6.329</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.332</v>
+        <v>3.825</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.254</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>-9.547000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.106</v>
+      </c>
       <c r="J7" t="n">
-        <v>0.9379999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="K7" t="n">
-        <v>5.599</v>
+        <v>13.285</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.527</v>
+        <v>-4.966</v>
       </c>
     </row>
     <row r="8">
@@ -668,37 +670,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89144.86</v>
+        <v>93452.13</v>
       </c>
       <c r="C8" t="n">
-        <v>172280.97</v>
+        <v>175601.61</v>
       </c>
       <c r="D8" t="n">
-        <v>50882.3</v>
+        <v>65999.86</v>
       </c>
       <c r="E8" t="n">
-        <v>82036.10000000001</v>
+        <v>69123.92999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>156488.42</v>
+        <v>154530.06</v>
       </c>
       <c r="G8" t="n">
-        <v>147300.58</v>
+        <v>135809.48</v>
       </c>
       <c r="H8" t="n">
-        <v>77891.55</v>
+        <v>74930.63</v>
       </c>
       <c r="I8" t="n">
-        <v>63966.9</v>
+        <v>58961</v>
       </c>
       <c r="J8" t="n">
-        <v>52245.92</v>
+        <v>43162.4</v>
       </c>
       <c r="K8" t="n">
-        <v>205724.65</v>
+        <v>218295.21</v>
       </c>
       <c r="L8" t="n">
-        <v>78783.97</v>
+        <v>76172.96000000001</v>
       </c>
     </row>
     <row r="9">
@@ -708,37 +710,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.835</v>
+        <v>0.904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="D9" t="n">
-        <v>1.081</v>
+        <v>1.042</v>
       </c>
       <c r="E9" t="n">
-        <v>1.027</v>
+        <v>0.975</v>
       </c>
       <c r="F9" t="n">
-        <v>1.03</v>
+        <v>1.006</v>
       </c>
       <c r="G9" t="n">
-        <v>1.046</v>
+        <v>1.028</v>
       </c>
       <c r="H9" t="n">
-        <v>1.174</v>
+        <v>1.117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.546</v>
+        <v>0.86</v>
       </c>
       <c r="J9" t="n">
-        <v>0.612</v>
+        <v>0.609</v>
       </c>
       <c r="K9" t="n">
-        <v>1.052</v>
+        <v>1.035</v>
       </c>
       <c r="L9" t="n">
-        <v>0.621</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
@@ -748,35 +750,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.878</v>
+        <v>-10.044</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.795</v>
+        <v>0.021</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.551</v>
+        <v>-16.965</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.753</v>
+        <v>1.104</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.655</v>
+        <v>-1.718</v>
       </c>
       <c r="G10" t="n">
-        <v>-13.663</v>
+        <v>-4.386</v>
       </c>
       <c r="H10" t="n">
-        <v>-25.52</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>-18.413</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-6.857</v>
+      </c>
       <c r="J10" t="n">
-        <v>-4.241</v>
+        <v>-1.344</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.782</v>
+        <v>5.028</v>
       </c>
       <c r="L10" t="n">
-        <v>-11.775</v>
+        <v>-10.081</v>
       </c>
     </row>
     <row r="11">
@@ -786,35 +790,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.154</v>
+        <v>-0.165</v>
       </c>
       <c r="C11" t="n">
-        <v>11.928</v>
+        <v>0.362</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.659</v>
+        <v>-0.287</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.146</v>
+        <v>0.342</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.739</v>
+        <v>0.261</v>
       </c>
       <c r="G11" t="n">
-        <v>-24.171</v>
+        <v>0.133</v>
       </c>
       <c r="H11" t="n">
-        <v>-58.672</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>-0.371</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.02</v>
+      </c>
       <c r="J11" t="n">
-        <v>1.652</v>
+        <v>0.223</v>
       </c>
       <c r="K11" t="n">
-        <v>20.374</v>
+        <v>0.534</v>
       </c>
       <c r="L11" t="n">
-        <v>-32.266</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="12">
@@ -824,35 +830,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.082</v>
+        <v>-0.037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024</v>
+        <v>0.074</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.034</v>
+        <v>-0.089</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.002</v>
+        <v>0.057</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.058</v>
+        <v>0.031</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.145</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>-0.091</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.006</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.003</v>
+        <v>0.052</v>
       </c>
       <c r="K12" t="n">
-        <v>0.046</v>
+        <v>0.123</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.117</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="13">
@@ -862,37 +870,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-52.427</v>
+        <v>-49.005</v>
       </c>
       <c r="C13" t="n">
-        <v>-35.553</v>
+        <v>-32.427</v>
       </c>
       <c r="D13" t="n">
-        <v>-65.997</v>
+        <v>-66.36499999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-61.051</v>
+        <v>-44.101</v>
       </c>
       <c r="F13" t="n">
-        <v>-45.683</v>
+        <v>-39.541</v>
       </c>
       <c r="G13" t="n">
-        <v>-44.071</v>
+        <v>-36.075</v>
       </c>
       <c r="H13" t="n">
-        <v>-63.955</v>
+        <v>-50.385</v>
       </c>
       <c r="I13" t="n">
-        <v>-1369.897</v>
+        <v>-42.377</v>
       </c>
       <c r="J13" t="n">
-        <v>-23.868</v>
+        <v>-22.737</v>
       </c>
       <c r="K13" t="n">
-        <v>-43.258</v>
+        <v>-34.126</v>
       </c>
       <c r="L13" t="n">
-        <v>-38.669</v>
+        <v>-34.779</v>
       </c>
     </row>
     <row r="14">
@@ -902,37 +910,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.541</v>
+        <v>20.313</v>
       </c>
       <c r="C14" t="n">
-        <v>20.385</v>
+        <v>20.176</v>
       </c>
       <c r="D14" t="n">
-        <v>65.283</v>
+        <v>32.285</v>
       </c>
       <c r="E14" t="n">
-        <v>31.876</v>
+        <v>24.351</v>
       </c>
       <c r="F14" t="n">
-        <v>22.497</v>
+        <v>21.971</v>
       </c>
       <c r="G14" t="n">
-        <v>25.091</v>
+        <v>24.283</v>
       </c>
       <c r="H14" t="n">
-        <v>28.96</v>
+        <v>27.347</v>
       </c>
       <c r="I14" t="n">
-        <v>623.249</v>
+        <v>24.68</v>
       </c>
       <c r="J14" t="n">
-        <v>12.63</v>
+        <v>14.195</v>
       </c>
       <c r="K14" t="n">
-        <v>23.906</v>
+        <v>23.764</v>
       </c>
       <c r="L14" t="n">
-        <v>22.522</v>
+        <v>22.098</v>
       </c>
     </row>
     <row r="15">
@@ -942,37 +950,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.397</v>
+        <v>0.422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.743</v>
+        <v>0.754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159</v>
+        <v>0.462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.248</v>
+        <v>0.406</v>
       </c>
       <c r="F15" t="n">
-        <v>0.745</v>
+        <v>0.784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.486</v>
+        <v>0.513</v>
       </c>
       <c r="H15" t="n">
-        <v>0.434</v>
+        <v>0.466</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001</v>
+        <v>0.315</v>
       </c>
       <c r="J15" t="n">
-        <v>0.696</v>
+        <v>0.577</v>
       </c>
       <c r="K15" t="n">
-        <v>0.736</v>
+        <v>0.742</v>
       </c>
       <c r="L15" t="n">
-        <v>0.91</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="16">
@@ -982,37 +990,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.8</v>
+        <v>7.29</v>
       </c>
       <c r="C16" t="n">
-        <v>7.956</v>
+        <v>7.884</v>
       </c>
       <c r="D16" t="n">
-        <v>8.587999999999999</v>
+        <v>8.313000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>8.196999999999999</v>
+        <v>7.814</v>
       </c>
       <c r="F16" t="n">
-        <v>8.218999999999999</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>8.331</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>9.266</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>4.696</v>
+        <v>6.963</v>
       </c>
       <c r="J16" t="n">
-        <v>5.18</v>
+        <v>5.104</v>
       </c>
       <c r="K16" t="n">
-        <v>8.380000000000001</v>
+        <v>8.257</v>
       </c>
       <c r="L16" t="n">
-        <v>5.248</v>
+        <v>5.115</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -430,37 +430,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.211</v>
+        <v>15.164</v>
       </c>
       <c r="C2" t="n">
-        <v>8.964</v>
+        <v>7.891</v>
       </c>
       <c r="D2" t="n">
-        <v>23.766</v>
+        <v>29.211</v>
       </c>
       <c r="E2" t="n">
-        <v>8.710000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="F2" t="n">
-        <v>7.802</v>
+        <v>6.694</v>
       </c>
       <c r="G2" t="n">
-        <v>18.363</v>
+        <v>17.726</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.885</v>
+        <v>-5.06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.792</v>
+        <v>-1.291</v>
       </c>
       <c r="J2" t="n">
-        <v>12.151</v>
+        <v>11.976</v>
       </c>
       <c r="K2" t="n">
-        <v>17.342</v>
+        <v>11.131</v>
       </c>
       <c r="L2" t="n">
-        <v>4.389</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="3">
@@ -470,37 +470,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.854</v>
+        <v>-10.333</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.583</v>
+        <v>-9.803000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.484</v>
+        <v>-20.32</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.176</v>
+        <v>-12.271</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.35</v>
+        <v>-20.33</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.968999999999999</v>
+        <v>-6.338</v>
       </c>
       <c r="H3" t="n">
-        <v>-41.747</v>
+        <v>-40.304</v>
       </c>
       <c r="I3" t="n">
-        <v>-25.836</v>
+        <v>-25.764</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.001</v>
+        <v>-1.991</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.967</v>
+        <v>-9.882999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>-16.002</v>
+        <v>-16.511</v>
       </c>
     </row>
     <row r="4">
@@ -510,37 +510,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13.865</v>
+        <v>-11.331</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.698</v>
+        <v>-10.105</v>
       </c>
       <c r="D4" t="n">
-        <v>-27.619</v>
+        <v>-24.831</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.852</v>
+        <v>-8.999000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-18.457</v>
+        <v>-16.973</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.442</v>
+        <v>-5.91</v>
       </c>
       <c r="H4" t="n">
-        <v>-39.783</v>
+        <v>-37.973</v>
       </c>
       <c r="I4" t="n">
-        <v>-21.646</v>
+        <v>-19.977</v>
       </c>
       <c r="J4" t="n">
         <v>-3.654</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.397</v>
+        <v>-4.593</v>
       </c>
       <c r="L4" t="n">
-        <v>-14.992</v>
+        <v>-14.185</v>
       </c>
     </row>
     <row r="5">
@@ -550,37 +550,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.776</v>
+        <v>-15.759</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.244</v>
+        <v>-3.63</v>
       </c>
       <c r="D5" t="n">
-        <v>-33.389</v>
+        <v>-30.538</v>
       </c>
       <c r="E5" t="n">
-        <v>3.789</v>
+        <v>6.471</v>
       </c>
       <c r="F5" t="n">
-        <v>-14.057</v>
+        <v>-13.576</v>
       </c>
       <c r="G5" t="n">
-        <v>3.085</v>
+        <v>4.67</v>
       </c>
       <c r="H5" t="n">
-        <v>-32.447</v>
+        <v>-31.513</v>
       </c>
       <c r="I5" t="n">
-        <v>-9.157</v>
+        <v>-7.868</v>
       </c>
       <c r="J5" t="n">
-        <v>3.088</v>
+        <v>2.705</v>
       </c>
       <c r="K5" t="n">
-        <v>4.097</v>
+        <v>4.363</v>
       </c>
       <c r="L5" t="n">
-        <v>-21.774</v>
+        <v>-20.876</v>
       </c>
     </row>
     <row r="6">
@@ -590,37 +590,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.972</v>
+        <v>-9.382999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>41.552</v>
+        <v>44.107</v>
       </c>
       <c r="D6" t="n">
-        <v>-33.852</v>
+        <v>-31.303</v>
       </c>
       <c r="E6" t="n">
-        <v>47.72</v>
+        <v>52.502</v>
       </c>
       <c r="F6" t="n">
-        <v>32.347</v>
+        <v>34.755</v>
       </c>
       <c r="G6" t="n">
-        <v>18.699</v>
+        <v>21.981</v>
       </c>
       <c r="H6" t="n">
-        <v>-36.761</v>
+        <v>-34.861</v>
       </c>
       <c r="I6" t="n">
-        <v>0.484</v>
+        <v>2.625</v>
       </c>
       <c r="J6" t="n">
         <v>18.361</v>
       </c>
       <c r="K6" t="n">
-        <v>76.773</v>
+        <v>74.58499999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>-20.755</v>
+        <v>-20.003</v>
       </c>
     </row>
     <row r="7">
@@ -630,37 +630,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.754</v>
+        <v>-2.129</v>
       </c>
       <c r="C7" t="n">
-        <v>7.906</v>
+        <v>8.308</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.651</v>
+        <v>-7.874</v>
       </c>
       <c r="E7" t="n">
-        <v>8.917999999999999</v>
+        <v>9.656000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>6.329</v>
+        <v>6.733</v>
       </c>
       <c r="G7" t="n">
-        <v>3.825</v>
+        <v>4.436</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.547000000000001</v>
+        <v>-8.938000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.106</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.76</v>
+        <v>3.751</v>
       </c>
       <c r="K7" t="n">
-        <v>13.285</v>
+        <v>12.944</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.966</v>
+        <v>-4.758</v>
       </c>
     </row>
     <row r="8">
@@ -670,37 +670,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93452.13</v>
+        <v>96201</v>
       </c>
       <c r="C8" t="n">
-        <v>175601.61</v>
+        <v>178770.71</v>
       </c>
       <c r="D8" t="n">
-        <v>65999.86</v>
+        <v>68542.36</v>
       </c>
       <c r="E8" t="n">
-        <v>69123.92999999999</v>
+        <v>71361.67999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>154530.06</v>
+        <v>157342.24</v>
       </c>
       <c r="G8" t="n">
-        <v>135809.48</v>
+        <v>139564.24</v>
       </c>
       <c r="H8" t="n">
-        <v>74930.63</v>
+        <v>77182.3</v>
       </c>
       <c r="I8" t="n">
-        <v>58961</v>
+        <v>60216.84</v>
       </c>
       <c r="J8" t="n">
         <v>43162.4</v>
       </c>
       <c r="K8" t="n">
-        <v>218295.21</v>
+        <v>215593.34</v>
       </c>
       <c r="L8" t="n">
-        <v>76172.96000000001</v>
+        <v>76895.56</v>
       </c>
     </row>
     <row r="9">
@@ -716,31 +716,31 @@
         <v>0.984</v>
       </c>
       <c r="D9" t="n">
-        <v>1.042</v>
+        <v>1.045</v>
       </c>
       <c r="E9" t="n">
         <v>0.975</v>
       </c>
       <c r="F9" t="n">
-        <v>1.006</v>
+        <v>1.007</v>
       </c>
       <c r="G9" t="n">
-        <v>1.028</v>
+        <v>1.032</v>
       </c>
       <c r="H9" t="n">
-        <v>1.117</v>
+        <v>1.115</v>
       </c>
       <c r="I9" t="n">
         <v>0.86</v>
       </c>
       <c r="J9" t="n">
-        <v>0.609</v>
+        <v>0.615</v>
       </c>
       <c r="K9" t="n">
-        <v>1.035</v>
+        <v>1.034</v>
       </c>
       <c r="L9" t="n">
-        <v>0.61</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="10">
@@ -750,37 +750,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.044</v>
+        <v>-9.423</v>
       </c>
       <c r="C10" t="n">
-        <v>0.021</v>
+        <v>0.428</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.965</v>
+        <v>-16.206</v>
       </c>
       <c r="E10" t="n">
-        <v>1.104</v>
+        <v>1.842</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.718</v>
+        <v>-1.322</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.386</v>
+        <v>-3.803</v>
       </c>
       <c r="H10" t="n">
-        <v>-18.413</v>
+        <v>-17.786</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.857</v>
+        <v>-6.402</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.344</v>
+        <v>-1.411</v>
       </c>
       <c r="K10" t="n">
-        <v>5.028</v>
+        <v>4.691</v>
       </c>
       <c r="L10" t="n">
-        <v>-10.081</v>
+        <v>-9.863</v>
       </c>
     </row>
     <row r="11">
@@ -790,37 +790,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.165</v>
+        <v>-0.135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.362</v>
+        <v>0.381</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.287</v>
+        <v>-0.263</v>
       </c>
       <c r="E11" t="n">
-        <v>0.342</v>
+        <v>0.371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.261</v>
+        <v>0.278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.133</v>
+        <v>0.157</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.371</v>
+        <v>-0.35</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02</v>
+        <v>-0.002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="K11" t="n">
-        <v>0.534</v>
+        <v>0.519</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.252</v>
+        <v>-0.244</v>
       </c>
     </row>
     <row r="12">
@@ -830,37 +830,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.037</v>
+        <v>-0.03</v>
       </c>
       <c r="C12" t="n">
-        <v>0.074</v>
+        <v>0.078</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.089</v>
+        <v>-0.081</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.091</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="K12" t="n">
-        <v>0.123</v>
+        <v>0.119</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.091</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -910,37 +910,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.313</v>
+        <v>20.319</v>
       </c>
       <c r="C14" t="n">
-        <v>20.176</v>
+        <v>20.18</v>
       </c>
       <c r="D14" t="n">
-        <v>32.285</v>
+        <v>32.284</v>
       </c>
       <c r="E14" t="n">
-        <v>24.351</v>
+        <v>24.364</v>
       </c>
       <c r="F14" t="n">
-        <v>21.971</v>
+        <v>21.99</v>
       </c>
       <c r="G14" t="n">
-        <v>24.283</v>
+        <v>24.366</v>
       </c>
       <c r="H14" t="n">
-        <v>27.347</v>
+        <v>27.348</v>
       </c>
       <c r="I14" t="n">
-        <v>24.68</v>
+        <v>24.676</v>
       </c>
       <c r="J14" t="n">
-        <v>14.195</v>
+        <v>14.176</v>
       </c>
       <c r="K14" t="n">
-        <v>23.764</v>
+        <v>23.761</v>
       </c>
       <c r="L14" t="n">
-        <v>22.098</v>
+        <v>22.093</v>
       </c>
     </row>
     <row r="15">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="C15" t="n">
         <v>0.754</v>
@@ -959,28 +959,28 @@
         <v>0.462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="G15" t="n">
         <v>0.513</v>
       </c>
       <c r="H15" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="I15" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="J15" t="n">
-        <v>0.577</v>
+        <v>0.575</v>
       </c>
       <c r="K15" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="L15" t="n">
-        <v>0.877</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="16">
@@ -990,37 +990,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.29</v>
+        <v>7.294</v>
       </c>
       <c r="C16" t="n">
-        <v>7.884</v>
+        <v>7.88</v>
       </c>
       <c r="D16" t="n">
-        <v>8.313000000000001</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>7.814</v>
       </c>
       <c r="F16" t="n">
-        <v>8.047000000000001</v>
+        <v>8.054</v>
       </c>
       <c r="G16" t="n">
-        <v>8.210000000000001</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>8.867000000000001</v>
+        <v>8.848000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>6.963</v>
+        <v>6.969</v>
       </c>
       <c r="J16" t="n">
-        <v>5.104</v>
+        <v>5.161</v>
       </c>
       <c r="K16" t="n">
-        <v>8.257</v>
+        <v>8.253</v>
       </c>
       <c r="L16" t="n">
-        <v>5.115</v>
+        <v>5.105</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,601 +426,561 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>% Return-1M</t>
+          <t>Pct. Return 1M</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.164</v>
+        <v>-0.169</v>
       </c>
       <c r="C2" t="n">
-        <v>7.891</v>
+        <v>3.406</v>
       </c>
       <c r="D2" t="n">
-        <v>29.211</v>
+        <v>6.72</v>
       </c>
       <c r="E2" t="n">
-        <v>11.225</v>
+        <v>-7.431</v>
       </c>
       <c r="F2" t="n">
-        <v>6.694</v>
+        <v>5.361</v>
       </c>
       <c r="G2" t="n">
-        <v>17.726</v>
+        <v>7.388</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.06</v>
+        <v>-7.003</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.291</v>
+        <v>-8.436999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>11.976</v>
+        <v>11.294</v>
       </c>
       <c r="K2" t="n">
-        <v>11.131</v>
+        <v>13.503</v>
       </c>
       <c r="L2" t="n">
-        <v>5.575</v>
+        <v>1.849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>% Return-3M</t>
+          <t>Pct. Return 3M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.333</v>
+        <v>-8.271000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.803000000000001</v>
+        <v>-12.956</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.32</v>
+        <v>-30.77</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.271</v>
+        <v>-26.267</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.33</v>
+        <v>-19.926</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.338</v>
+        <v>-12.543</v>
       </c>
       <c r="H3" t="n">
-        <v>-40.304</v>
+        <v>-46.571</v>
       </c>
       <c r="I3" t="n">
-        <v>-25.764</v>
+        <v>-34.373</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.991</v>
+        <v>-1.492</v>
       </c>
       <c r="K3" t="n">
-        <v>-9.882999999999999</v>
+        <v>-3.074</v>
       </c>
       <c r="L3" t="n">
-        <v>-16.511</v>
+        <v>-18.034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>% Return-YTD</t>
+          <t>Pct. Return YTD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-11.331</v>
+        <v>-9.782</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.105</v>
+        <v>-8.561</v>
       </c>
       <c r="D4" t="n">
-        <v>-24.831</v>
+        <v>-28.539</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.999000000000001</v>
+        <v>-18.944</v>
       </c>
       <c r="F4" t="n">
-        <v>-16.973</v>
+        <v>-15.487</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.91</v>
+        <v>-7.514</v>
       </c>
       <c r="H4" t="n">
-        <v>-37.973</v>
+        <v>-43.338</v>
       </c>
       <c r="I4" t="n">
-        <v>-19.977</v>
+        <v>-28.168</v>
       </c>
       <c r="J4" t="n">
         <v>-3.654</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.593</v>
+        <v>6.349</v>
       </c>
       <c r="L4" t="n">
-        <v>-14.185</v>
+        <v>-14.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>% Return-1Y</t>
+          <t>Pct. Return 1Y</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-15.759</v>
+        <v>-8.156000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.63</v>
+        <v>1.379</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.538</v>
+        <v>-30.691</v>
       </c>
       <c r="E5" t="n">
-        <v>6.471</v>
+        <v>-8.654</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.576</v>
+        <v>-11.97</v>
       </c>
       <c r="G5" t="n">
-        <v>4.67</v>
+        <v>1.614</v>
       </c>
       <c r="H5" t="n">
-        <v>-31.513</v>
+        <v>-35.762</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.868</v>
+        <v>-18.721</v>
       </c>
       <c r="J5" t="n">
-        <v>2.705</v>
+        <v>6.867</v>
       </c>
       <c r="K5" t="n">
-        <v>4.363</v>
+        <v>18.768</v>
       </c>
       <c r="L5" t="n">
-        <v>-20.876</v>
+        <v>-16.698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>% Return-Max</t>
+          <t>Pct. Return Max</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.382999999999999</v>
+        <v>-1.446</v>
       </c>
       <c r="C6" t="n">
-        <v>44.107</v>
+        <v>46.582</v>
       </c>
       <c r="D6" t="n">
-        <v>-31.303</v>
+        <v>-34.693</v>
       </c>
       <c r="E6" t="n">
-        <v>52.502</v>
+        <v>35.836</v>
       </c>
       <c r="F6" t="n">
-        <v>34.755</v>
+        <v>37.168</v>
       </c>
       <c r="G6" t="n">
-        <v>21.981</v>
+        <v>19.902</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.861</v>
+        <v>-40.495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.625</v>
+        <v>-7.879</v>
       </c>
       <c r="J6" t="n">
         <v>18.361</v>
       </c>
       <c r="K6" t="n">
-        <v>74.58499999999999</v>
+        <v>94.608</v>
       </c>
       <c r="L6" t="n">
-        <v>-20.003</v>
+        <v>-20.371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>% Return-CAGR</t>
+          <t>Pct. Return CAGR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.129</v>
+        <v>-0.314</v>
       </c>
       <c r="C7" t="n">
-        <v>8.308</v>
+        <v>8.621</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.874</v>
+        <v>-8.801</v>
       </c>
       <c r="E7" t="n">
-        <v>9.656000000000001</v>
+        <v>6.847</v>
       </c>
       <c r="F7" t="n">
-        <v>6.733</v>
+        <v>7.073</v>
       </c>
       <c r="G7" t="n">
-        <v>4.436</v>
+        <v>4.003</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.938000000000001</v>
+        <v>-10.618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5679999999999999</v>
+        <v>-1.759</v>
       </c>
       <c r="J7" t="n">
-        <v>3.751</v>
+        <v>3.712</v>
       </c>
       <c r="K7" t="n">
-        <v>12.944</v>
+        <v>15.485</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.758</v>
+        <v>-4.806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sector Cap</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96201</v>
+        <v>0.756</v>
       </c>
       <c r="C8" t="n">
-        <v>178770.71</v>
+        <v>0.985</v>
       </c>
       <c r="D8" t="n">
-        <v>68542.36</v>
+        <v>1.044</v>
       </c>
       <c r="E8" t="n">
-        <v>71361.67999999999</v>
+        <v>0.979</v>
       </c>
       <c r="F8" t="n">
-        <v>157342.24</v>
+        <v>1.009</v>
       </c>
       <c r="G8" t="n">
-        <v>139564.24</v>
+        <v>1.035</v>
       </c>
       <c r="H8" t="n">
-        <v>77182.3</v>
+        <v>1.115</v>
       </c>
       <c r="I8" t="n">
-        <v>60216.84</v>
+        <v>0.859</v>
       </c>
       <c r="J8" t="n">
-        <v>43162.4</v>
+        <v>0.612</v>
       </c>
       <c r="K8" t="n">
-        <v>215593.34</v>
+        <v>1.039</v>
       </c>
       <c r="L8" t="n">
-        <v>76895.56</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.904</v>
+        <v>-6.515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.984</v>
+        <v>0.734</v>
       </c>
       <c r="D9" t="n">
-        <v>1.045</v>
+        <v>-17.124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.975</v>
+        <v>-1.002</v>
       </c>
       <c r="F9" t="n">
-        <v>1.007</v>
+        <v>-0.996</v>
       </c>
       <c r="G9" t="n">
-        <v>1.032</v>
+        <v>-4.255</v>
       </c>
       <c r="H9" t="n">
-        <v>1.115</v>
+        <v>-19.462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.86</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.615</v>
+        <v>-1.435</v>
       </c>
       <c r="K9" t="n">
-        <v>1.034</v>
+        <v>7.196</v>
       </c>
       <c r="L9" t="n">
-        <v>0.608</v>
+        <v>-9.891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Sharpe</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.423</v>
+        <v>-0.054</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428</v>
+        <v>0.394</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.206</v>
+        <v>-0.291</v>
       </c>
       <c r="E10" t="n">
-        <v>1.842</v>
+        <v>0.255</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.322</v>
+        <v>0.292</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.803</v>
+        <v>0.138</v>
       </c>
       <c r="H10" t="n">
-        <v>-17.786</v>
+        <v>-0.412</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.402</v>
+        <v>-0.097</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.411</v>
+        <v>0.269</v>
       </c>
       <c r="K10" t="n">
-        <v>4.691</v>
+        <v>0.621</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.863</v>
+        <v>-0.428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Sharpe</t>
+          <t>Treynor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.135</v>
+        <v>-0.013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.381</v>
+        <v>0.081</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.263</v>
+        <v>-0.09</v>
       </c>
       <c r="E11" t="n">
-        <v>0.371</v>
+        <v>0.063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.278</v>
+        <v>0.064</v>
       </c>
       <c r="G11" t="n">
-        <v>0.157</v>
+        <v>0.032</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.35</v>
+        <v>-0.101</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.002</v>
+        <v>-0.028</v>
       </c>
       <c r="J11" t="n">
-        <v>0.221</v>
+        <v>0.05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.519</v>
+        <v>0.143</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.244</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Treynor</t>
+          <t>Max Drawdown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03</v>
+        <v>-39.365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.078</v>
+        <v>-32.427</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.081</v>
+        <v>-66.36499999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.093</v>
+        <v>-44.101</v>
       </c>
       <c r="F12" t="n">
-        <v>0.061</v>
+        <v>-39.541</v>
       </c>
       <c r="G12" t="n">
-        <v>0.037</v>
+        <v>-36.075</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-50.385</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001</v>
+        <v>-42.377</v>
       </c>
       <c r="J12" t="n">
-        <v>0.051</v>
+        <v>-22.737</v>
       </c>
       <c r="K12" t="n">
-        <v>0.119</v>
+        <v>-34.126</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-34.779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Max Drawdown</t>
+          <t>Std. Deviation</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-49.005</v>
+        <v>17.826</v>
       </c>
       <c r="C13" t="n">
-        <v>-32.427</v>
+        <v>20.25</v>
       </c>
       <c r="D13" t="n">
-        <v>-66.36499999999999</v>
+        <v>32.513</v>
       </c>
       <c r="E13" t="n">
-        <v>-44.101</v>
+        <v>24.33</v>
       </c>
       <c r="F13" t="n">
-        <v>-39.541</v>
+        <v>22.009</v>
       </c>
       <c r="G13" t="n">
-        <v>-36.075</v>
+        <v>24.327</v>
       </c>
       <c r="H13" t="n">
-        <v>-50.385</v>
+        <v>27.329</v>
       </c>
       <c r="I13" t="n">
-        <v>-42.377</v>
+        <v>24.775</v>
       </c>
       <c r="J13" t="n">
-        <v>-22.737</v>
+        <v>11.445</v>
       </c>
       <c r="K13" t="n">
-        <v>-34.126</v>
+        <v>23.917</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.779</v>
+        <v>12.739</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Std. Deviation</t>
+          <t>R Squared</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.319</v>
+        <v>0.344</v>
       </c>
       <c r="C14" t="n">
-        <v>20.18</v>
+        <v>0.761</v>
       </c>
       <c r="D14" t="n">
-        <v>32.284</v>
+        <v>0.471</v>
       </c>
       <c r="E14" t="n">
-        <v>24.364</v>
+        <v>0.416</v>
       </c>
       <c r="F14" t="n">
-        <v>21.99</v>
+        <v>0.791</v>
       </c>
       <c r="G14" t="n">
-        <v>24.366</v>
+        <v>0.519</v>
       </c>
       <c r="H14" t="n">
-        <v>27.348</v>
+        <v>0.471</v>
       </c>
       <c r="I14" t="n">
-        <v>24.676</v>
+        <v>0.32</v>
       </c>
       <c r="J14" t="n">
-        <v>14.176</v>
+        <v>0.375</v>
       </c>
       <c r="K14" t="n">
-        <v>23.761</v>
+        <v>0.742</v>
       </c>
       <c r="L14" t="n">
-        <v>22.093</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-Squared</t>
+          <t>Expected Return</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.421</v>
+        <v>6.201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.754</v>
+        <v>7.887</v>
       </c>
       <c r="D15" t="n">
-        <v>0.462</v>
+        <v>8.321999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.407</v>
+        <v>7.849</v>
       </c>
       <c r="F15" t="n">
-        <v>0.785</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.513</v>
+        <v>8.257999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.464</v>
+        <v>8.843999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.316</v>
+        <v>6.961</v>
       </c>
       <c r="J15" t="n">
-        <v>0.575</v>
+        <v>5.147</v>
       </c>
       <c r="K15" t="n">
-        <v>0.741</v>
+        <v>8.289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.863</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Expected Return</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7.294</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.332000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.814</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.054</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.239000000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.848000000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.969</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.161</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8.253</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.105</v>
+        <v>5.085</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,6 +419,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Fixed Income</t>
         </is>
       </c>
@@ -430,37 +435,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.169</v>
+        <v>-1.357</v>
       </c>
       <c r="C2" t="n">
-        <v>3.406</v>
+        <v>-0.418</v>
       </c>
       <c r="D2" t="n">
-        <v>6.72</v>
+        <v>-13.513</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.431</v>
+        <v>-2.211</v>
       </c>
       <c r="F2" t="n">
-        <v>5.361</v>
+        <v>-15.323</v>
       </c>
       <c r="G2" t="n">
-        <v>7.388</v>
+        <v>-0.671</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.003</v>
+        <v>-1.063</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.436999999999999</v>
+        <v>-2.419</v>
       </c>
       <c r="J2" t="n">
-        <v>11.294</v>
+        <v>-6.62</v>
       </c>
       <c r="K2" t="n">
-        <v>13.503</v>
+        <v>-3.21</v>
       </c>
       <c r="L2" t="n">
-        <v>1.849</v>
+        <v>-5.118</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.857</v>
       </c>
     </row>
     <row r="3">
@@ -470,37 +478,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.271000000000001</v>
+        <v>2.161</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.956</v>
+        <v>14.271</v>
       </c>
       <c r="D3" t="n">
-        <v>-30.77</v>
+        <v>-16.967</v>
       </c>
       <c r="E3" t="n">
-        <v>-26.267</v>
+        <v>0.261</v>
       </c>
       <c r="F3" t="n">
-        <v>-19.926</v>
+        <v>-8.663</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.543</v>
+        <v>12.287</v>
       </c>
       <c r="H3" t="n">
-        <v>-46.571</v>
+        <v>5.043</v>
       </c>
       <c r="I3" t="n">
-        <v>-34.373</v>
+        <v>18.754</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.492</v>
+        <v>-0.296</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.074</v>
+        <v>7.892</v>
       </c>
       <c r="L3" t="n">
-        <v>-18.034</v>
+        <v>-4.058</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.449</v>
       </c>
     </row>
     <row r="4">
@@ -510,37 +521,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.782</v>
+        <v>-12.295</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.561</v>
+        <v>9.16</v>
       </c>
       <c r="D4" t="n">
-        <v>-28.539</v>
+        <v>-34.716</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.944</v>
+        <v>-5.528</v>
       </c>
       <c r="F4" t="n">
-        <v>-15.487</v>
+        <v>-14.427</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.514</v>
+        <v>4.975</v>
       </c>
       <c r="H4" t="n">
-        <v>-43.338</v>
+        <v>-32.25</v>
       </c>
       <c r="I4" t="n">
-        <v>-28.168</v>
+        <v>-7.425</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.654</v>
+        <v>-9.298</v>
       </c>
       <c r="K4" t="n">
-        <v>6.349</v>
+        <v>24.154</v>
       </c>
       <c r="L4" t="n">
-        <v>-14.58</v>
+        <v>-6.717</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.206</v>
       </c>
     </row>
     <row r="5">
@@ -550,37 +564,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.537000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>1.379</v>
+        <v>14.316</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.691</v>
+        <v>-33.963</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.654</v>
+        <v>1.783</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.97</v>
+        <v>-14.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.614</v>
+        <v>11.84</v>
       </c>
       <c r="H5" t="n">
-        <v>-35.762</v>
+        <v>-28.917</v>
       </c>
       <c r="I5" t="n">
-        <v>-18.721</v>
+        <v>-4.489</v>
       </c>
       <c r="J5" t="n">
-        <v>6.867</v>
+        <v>-1.983</v>
       </c>
       <c r="K5" t="n">
-        <v>18.768</v>
+        <v>30.055</v>
       </c>
       <c r="L5" t="n">
-        <v>-16.698</v>
+        <v>-0.755</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.059</v>
       </c>
     </row>
     <row r="6">
@@ -590,37 +607,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.446</v>
+        <v>-8.446</v>
       </c>
       <c r="C6" t="n">
-        <v>46.582</v>
+        <v>40.174</v>
       </c>
       <c r="D6" t="n">
-        <v>-34.693</v>
+        <v>-40.337</v>
       </c>
       <c r="E6" t="n">
-        <v>35.836</v>
+        <v>58.315</v>
       </c>
       <c r="F6" t="n">
-        <v>37.168</v>
+        <v>-25.232</v>
       </c>
       <c r="G6" t="n">
-        <v>19.902</v>
+        <v>36.093</v>
       </c>
       <c r="H6" t="n">
-        <v>-40.495</v>
+        <v>-29.178</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.879</v>
+        <v>18.723</v>
       </c>
       <c r="J6" t="n">
-        <v>18.361</v>
+        <v>5.33</v>
       </c>
       <c r="K6" t="n">
-        <v>94.608</v>
+        <v>119.843</v>
       </c>
       <c r="L6" t="n">
-        <v>-20.371</v>
+        <v>54.679</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-8.837</v>
       </c>
     </row>
     <row r="7">
@@ -630,37 +650,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.314</v>
+        <v>-1.767</v>
       </c>
       <c r="C7" t="n">
-        <v>8.621</v>
+        <v>7.06</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.801</v>
+        <v>-9.906000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>6.847</v>
+        <v>9.724</v>
       </c>
       <c r="F7" t="n">
-        <v>7.073</v>
+        <v>-5.704</v>
       </c>
       <c r="G7" t="n">
-        <v>4.003</v>
+        <v>6.423</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.618</v>
+        <v>-6.731</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.759</v>
+        <v>3.527</v>
       </c>
       <c r="J7" t="n">
-        <v>3.712</v>
+        <v>1.054</v>
       </c>
       <c r="K7" t="n">
-        <v>15.485</v>
+        <v>17.248</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.806</v>
+        <v>9.210000000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1.851</v>
       </c>
     </row>
     <row r="8">
@@ -670,37 +693,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.756</v>
+        <v>0.85</v>
       </c>
       <c r="C8" t="n">
-        <v>0.985</v>
+        <v>0.978</v>
       </c>
       <c r="D8" t="n">
-        <v>1.044</v>
+        <v>1.075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.979</v>
+        <v>0.971</v>
       </c>
       <c r="F8" t="n">
-        <v>1.009</v>
+        <v>1.03</v>
       </c>
       <c r="G8" t="n">
-        <v>1.035</v>
+        <v>1.02</v>
       </c>
       <c r="H8" t="n">
-        <v>1.115</v>
+        <v>1.119</v>
       </c>
       <c r="I8" t="n">
-        <v>0.859</v>
+        <v>0.881</v>
       </c>
       <c r="J8" t="n">
-        <v>0.612</v>
+        <v>0.893</v>
       </c>
       <c r="K8" t="n">
-        <v>1.039</v>
+        <v>1.063</v>
       </c>
       <c r="L8" t="n">
-        <v>0.604</v>
+        <v>0.952</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.598</v>
       </c>
     </row>
     <row r="9">
@@ -710,37 +736,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.515</v>
+        <v>-8.669</v>
       </c>
       <c r="C9" t="n">
-        <v>0.734</v>
+        <v>-0.781</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.124</v>
+        <v>-18.459</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.002</v>
+        <v>1.933</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.996</v>
+        <v>-13.926</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.255</v>
+        <v>-1.722</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.462</v>
+        <v>-15.601</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.720000000000001</v>
+        <v>-3.601</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.435</v>
+        <v>-6.16</v>
       </c>
       <c r="K9" t="n">
-        <v>7.196</v>
+        <v>8.788</v>
       </c>
       <c r="L9" t="n">
-        <v>-9.891</v>
+        <v>1.564</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6.908</v>
       </c>
     </row>
     <row r="10">
@@ -750,37 +779,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.054</v>
+        <v>-0.128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.394</v>
+        <v>0.267</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.291</v>
+        <v>-0.319</v>
       </c>
       <c r="E10" t="n">
-        <v>0.255</v>
+        <v>0.369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.292</v>
+        <v>-0.201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.138</v>
+        <v>0.237</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.412</v>
+        <v>-0.27</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.097</v>
+        <v>0.113</v>
       </c>
       <c r="J10" t="n">
-        <v>0.269</v>
+        <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>0.621</v>
+        <v>0.577</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.428</v>
+        <v>0.392</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.204</v>
       </c>
     </row>
     <row r="11">
@@ -790,37 +822,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.013</v>
+        <v>-0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.081</v>
+        <v>0.065</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09</v>
+        <v>-0.098</v>
       </c>
       <c r="E11" t="n">
-        <v>0.063</v>
+        <v>0.093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.064</v>
+        <v>-0.062</v>
       </c>
       <c r="G11" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.032</v>
       </c>
-      <c r="H11" t="n">
-        <v>-0.101</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.028</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="K11" t="n">
-        <v>0.143</v>
+        <v>0.156</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.09</v>
+        <v>0.09</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.042</v>
       </c>
     </row>
     <row r="12">
@@ -830,10 +865,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-39.365</v>
+        <v>-46.362</v>
       </c>
       <c r="C12" t="n">
-        <v>-32.427</v>
+        <v>-44.163</v>
       </c>
       <c r="D12" t="n">
         <v>-66.36499999999999</v>
@@ -842,7 +877,7 @@
         <v>-44.101</v>
       </c>
       <c r="F12" t="n">
-        <v>-39.541</v>
+        <v>-53.669</v>
       </c>
       <c r="G12" t="n">
         <v>-36.075</v>
@@ -854,13 +889,16 @@
         <v>-42.377</v>
       </c>
       <c r="J12" t="n">
-        <v>-22.737</v>
+        <v>-43.677</v>
       </c>
       <c r="K12" t="n">
-        <v>-34.126</v>
+        <v>-39.753</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.779</v>
+        <v>-35.67</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-34.782</v>
       </c>
     </row>
     <row r="13">
@@ -870,37 +908,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.826</v>
+        <v>19.118</v>
       </c>
       <c r="C13" t="n">
-        <v>20.25</v>
+        <v>23.976</v>
       </c>
       <c r="D13" t="n">
-        <v>32.513</v>
+        <v>33.217</v>
       </c>
       <c r="E13" t="n">
-        <v>24.33</v>
+        <v>24.559</v>
       </c>
       <c r="F13" t="n">
-        <v>22.009</v>
+        <v>31.731</v>
       </c>
       <c r="G13" t="n">
-        <v>24.327</v>
+        <v>24.251</v>
       </c>
       <c r="H13" t="n">
-        <v>27.329</v>
+        <v>27.382</v>
       </c>
       <c r="I13" t="n">
-        <v>24.775</v>
+        <v>25.248</v>
       </c>
       <c r="J13" t="n">
-        <v>11.445</v>
+        <v>19.048</v>
       </c>
       <c r="K13" t="n">
-        <v>23.917</v>
+        <v>28.76</v>
       </c>
       <c r="L13" t="n">
-        <v>12.739</v>
+        <v>21.804</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.393</v>
       </c>
     </row>
     <row r="14">
@@ -910,37 +951,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.344</v>
+        <v>0.45</v>
       </c>
       <c r="C14" t="n">
-        <v>0.761</v>
+        <v>0.498</v>
       </c>
       <c r="D14" t="n">
         <v>0.471</v>
       </c>
       <c r="E14" t="n">
-        <v>0.416</v>
+        <v>0.422</v>
       </c>
       <c r="F14" t="n">
-        <v>0.791</v>
+        <v>0.393</v>
       </c>
       <c r="G14" t="n">
-        <v>0.519</v>
+        <v>0.512</v>
       </c>
       <c r="H14" t="n">
         <v>0.471</v>
       </c>
       <c r="I14" t="n">
-        <v>0.32</v>
+        <v>0.326</v>
       </c>
       <c r="J14" t="n">
-        <v>0.375</v>
+        <v>0.607</v>
       </c>
       <c r="K14" t="n">
-        <v>0.742</v>
+        <v>0.593</v>
       </c>
       <c r="L14" t="n">
-        <v>0.288</v>
+        <v>0.674</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.296</v>
       </c>
     </row>
     <row r="15">
@@ -950,37 +994,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.201</v>
+        <v>6.902</v>
       </c>
       <c r="C15" t="n">
-        <v>7.887</v>
+        <v>7.84</v>
       </c>
       <c r="D15" t="n">
-        <v>8.321999999999999</v>
+        <v>8.552</v>
       </c>
       <c r="E15" t="n">
-        <v>7.849</v>
+        <v>7.791</v>
       </c>
       <c r="F15" t="n">
-        <v>8.069000000000001</v>
+        <v>8.221</v>
       </c>
       <c r="G15" t="n">
-        <v>8.257999999999999</v>
+        <v>8.145</v>
       </c>
       <c r="H15" t="n">
-        <v>8.843999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>6.961</v>
+        <v>7.128</v>
       </c>
       <c r="J15" t="n">
-        <v>5.147</v>
+        <v>7.214</v>
       </c>
       <c r="K15" t="n">
-        <v>8.289</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>5.085</v>
+        <v>7.646</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.057</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -435,40 +435,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.357</v>
+        <v>-1.309</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.418</v>
+        <v>-0.676</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.513</v>
+        <v>-13.933</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.211</v>
+        <v>-1.344</v>
       </c>
       <c r="F2" t="n">
-        <v>-15.323</v>
+        <v>-16.013</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.671</v>
+        <v>0.031</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.063</v>
+        <v>-1.005</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.419</v>
+        <v>-0.916</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.62</v>
+        <v>-15.28</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.21</v>
+        <v>-2.927</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.118</v>
+        <v>-5.713</v>
       </c>
       <c r="M2" t="n">
-        <v>0.857</v>
+        <v>2.088</v>
       </c>
     </row>
     <row r="3">
@@ -478,40 +478,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.161</v>
+        <v>0.842</v>
       </c>
       <c r="C3" t="n">
-        <v>14.271</v>
+        <v>10.053</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.967</v>
+        <v>-16.505</v>
       </c>
       <c r="E3" t="n">
-        <v>0.261</v>
+        <v>-2.173</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.663</v>
+        <v>-10.709</v>
       </c>
       <c r="G3" t="n">
-        <v>12.287</v>
+        <v>9.396000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>5.043</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>18.754</v>
+        <v>15.921</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.296</v>
+        <v>-10.514</v>
       </c>
       <c r="K3" t="n">
-        <v>7.892</v>
+        <v>3.877</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.058</v>
+        <v>4.371</v>
       </c>
       <c r="M3" t="n">
-        <v>5.449</v>
+        <v>6.853</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +521,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-12.295</v>
+        <v>-5.837</v>
       </c>
       <c r="C4" t="n">
-        <v>9.16</v>
+        <v>9.763999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-34.716</v>
+        <v>-31.548</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.528</v>
+        <v>-4.019</v>
       </c>
       <c r="F4" t="n">
-        <v>-14.427</v>
+        <v>-14.548</v>
       </c>
       <c r="G4" t="n">
-        <v>4.975</v>
+        <v>5.155</v>
       </c>
       <c r="H4" t="n">
-        <v>-32.25</v>
+        <v>-32.299</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.425</v>
+        <v>-7.059</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.298</v>
+        <v>-18.107</v>
       </c>
       <c r="K4" t="n">
-        <v>24.154</v>
+        <v>24.456</v>
       </c>
       <c r="L4" t="n">
-        <v>-6.717</v>
+        <v>3.06</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.206</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -564,40 +564,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8.537000000000001</v>
+        <v>-0.983</v>
       </c>
       <c r="C5" t="n">
-        <v>14.316</v>
+        <v>15.347</v>
       </c>
       <c r="D5" t="n">
-        <v>-33.963</v>
+        <v>-30.345</v>
       </c>
       <c r="E5" t="n">
-        <v>1.783</v>
+        <v>4.888</v>
       </c>
       <c r="F5" t="n">
-        <v>-14.32</v>
+        <v>-16.005</v>
       </c>
       <c r="G5" t="n">
-        <v>11.84</v>
+        <v>17.743</v>
       </c>
       <c r="H5" t="n">
-        <v>-28.917</v>
+        <v>-29.583</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.489</v>
+        <v>-3.525</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.983</v>
+        <v>-10.242</v>
       </c>
       <c r="K5" t="n">
-        <v>30.055</v>
+        <v>29.167</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.755</v>
+        <v>9.747999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>5.059</v>
+        <v>13.436</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.446</v>
+        <v>10.415</v>
       </c>
       <c r="C6" t="n">
-        <v>40.174</v>
+        <v>101.988</v>
       </c>
       <c r="D6" t="n">
-        <v>-40.337</v>
+        <v>-28.545</v>
       </c>
       <c r="E6" t="n">
-        <v>58.315</v>
+        <v>71.16500000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>-25.232</v>
+        <v>47.183</v>
       </c>
       <c r="G6" t="n">
-        <v>36.093</v>
+        <v>32.073</v>
       </c>
       <c r="H6" t="n">
-        <v>-29.178</v>
+        <v>-22.409</v>
       </c>
       <c r="I6" t="n">
-        <v>18.723</v>
+        <v>26.731</v>
       </c>
       <c r="J6" t="n">
-        <v>5.33</v>
+        <v>4.022</v>
       </c>
       <c r="K6" t="n">
-        <v>119.843</v>
+        <v>133.252</v>
       </c>
       <c r="L6" t="n">
-        <v>54.679</v>
+        <v>77.97799999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>-8.837</v>
+        <v>7.319</v>
       </c>
     </row>
     <row r="7">
@@ -650,40 +650,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.767</v>
+        <v>2.021</v>
       </c>
       <c r="C7" t="n">
-        <v>7.06</v>
+        <v>15.259</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.906000000000001</v>
+        <v>-6.564</v>
       </c>
       <c r="E7" t="n">
-        <v>9.724</v>
+        <v>11.467</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.704</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>6.423</v>
+        <v>5.78</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.731</v>
+        <v>-4.996</v>
       </c>
       <c r="I7" t="n">
-        <v>3.527</v>
+        <v>4.902</v>
       </c>
       <c r="J7" t="n">
-        <v>1.054</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>17.248</v>
+        <v>18.658</v>
       </c>
       <c r="L7" t="n">
-        <v>9.210000000000001</v>
+        <v>12.35</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.851</v>
+        <v>1.437</v>
       </c>
     </row>
     <row r="8">
@@ -693,40 +693,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.85</v>
+        <v>0.865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.978</v>
+        <v>0.991</v>
       </c>
       <c r="D8" t="n">
-        <v>1.075</v>
+        <v>1.088</v>
       </c>
       <c r="E8" t="n">
-        <v>0.971</v>
+        <v>0.973</v>
       </c>
       <c r="F8" t="n">
-        <v>1.03</v>
+        <v>1.035</v>
       </c>
       <c r="G8" t="n">
-        <v>1.02</v>
+        <v>1.014</v>
       </c>
       <c r="H8" t="n">
-        <v>1.119</v>
+        <v>1.127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.881</v>
+        <v>0.883</v>
       </c>
       <c r="J8" t="n">
-        <v>0.893</v>
+        <v>0.899</v>
       </c>
       <c r="K8" t="n">
-        <v>1.063</v>
+        <v>1.069</v>
       </c>
       <c r="L8" t="n">
-        <v>0.952</v>
+        <v>0.961</v>
       </c>
       <c r="M8" t="n">
-        <v>0.598</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="9">
@@ -736,40 +736,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.669</v>
+        <v>-4.989</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.781</v>
+        <v>7.324</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.459</v>
+        <v>-15.206</v>
       </c>
       <c r="E9" t="n">
-        <v>1.933</v>
+        <v>3.664</v>
       </c>
       <c r="F9" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2.325</v>
+      </c>
+      <c r="H9" t="n">
         <v>-13.926</v>
       </c>
-      <c r="G9" t="n">
-        <v>-1.722</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-15.601</v>
-      </c>
       <c r="I9" t="n">
-        <v>-3.601</v>
+        <v>-2.243</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.16</v>
+        <v>-6.457</v>
       </c>
       <c r="K9" t="n">
-        <v>8.788</v>
+        <v>10.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.564</v>
+        <v>4.635</v>
       </c>
       <c r="M9" t="n">
-        <v>-6.908</v>
+        <v>-3.716</v>
       </c>
     </row>
     <row r="10">
@@ -779,40 +779,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.128</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.267</v>
+        <v>0.669</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.319</v>
+        <v>-0.218</v>
       </c>
       <c r="E10" t="n">
-        <v>0.369</v>
+        <v>0.435</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.201</v>
+        <v>0.315</v>
       </c>
       <c r="G10" t="n">
-        <v>0.237</v>
+        <v>0.224</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.27</v>
+        <v>-0.207</v>
       </c>
       <c r="I10" t="n">
-        <v>0.113</v>
+        <v>0.163</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="K10" t="n">
-        <v>0.577</v>
+        <v>0.623</v>
       </c>
       <c r="L10" t="n">
-        <v>0.392</v>
+        <v>0.554</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.204</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="11">
@@ -822,40 +822,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.029</v>
+        <v>0.016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.065</v>
+        <v>0.147</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.098</v>
+        <v>-0.067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.093</v>
+        <v>0.111</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.062</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.066</v>
+        <v>-0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.032</v>
+        <v>0.048</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.156</v>
+        <v>0.168</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09</v>
+        <v>0.122</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.042</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="12">
@@ -865,40 +865,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-46.362</v>
+        <v>-42.584</v>
       </c>
       <c r="C12" t="n">
-        <v>-44.163</v>
+        <v>-30.202</v>
       </c>
       <c r="D12" t="n">
-        <v>-66.36499999999999</v>
+        <v>-64.238</v>
       </c>
       <c r="E12" t="n">
-        <v>-44.101</v>
+        <v>-43.964</v>
       </c>
       <c r="F12" t="n">
-        <v>-53.669</v>
+        <v>-39.97</v>
       </c>
       <c r="G12" t="n">
-        <v>-36.075</v>
+        <v>-36.067</v>
       </c>
       <c r="H12" t="n">
-        <v>-50.385</v>
+        <v>-50.672</v>
       </c>
       <c r="I12" t="n">
-        <v>-42.377</v>
+        <v>-42.943</v>
       </c>
       <c r="J12" t="n">
-        <v>-43.677</v>
+        <v>-40.828</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.753</v>
+        <v>-40.259</v>
       </c>
       <c r="L12" t="n">
-        <v>-35.67</v>
+        <v>-33.848</v>
       </c>
       <c r="M12" t="n">
-        <v>-34.782</v>
+        <v>-29.365</v>
       </c>
     </row>
     <row r="13">
@@ -908,40 +908,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.118</v>
+        <v>19.132</v>
       </c>
       <c r="C13" t="n">
-        <v>23.976</v>
+        <v>21.804</v>
       </c>
       <c r="D13" t="n">
-        <v>33.217</v>
+        <v>33.155</v>
       </c>
       <c r="E13" t="n">
-        <v>24.559</v>
+        <v>24.851</v>
       </c>
       <c r="F13" t="n">
-        <v>31.731</v>
+        <v>23.634</v>
       </c>
       <c r="G13" t="n">
-        <v>24.251</v>
+        <v>22.85</v>
       </c>
       <c r="H13" t="n">
-        <v>27.382</v>
+        <v>27.356</v>
       </c>
       <c r="I13" t="n">
-        <v>25.248</v>
+        <v>25.95</v>
       </c>
       <c r="J13" t="n">
-        <v>19.048</v>
+        <v>19.723</v>
       </c>
       <c r="K13" t="n">
-        <v>28.76</v>
+        <v>28.872</v>
       </c>
       <c r="L13" t="n">
-        <v>21.804</v>
+        <v>21.087</v>
       </c>
       <c r="M13" t="n">
-        <v>12.393</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="14">
@@ -951,40 +951,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.45</v>
+        <v>0.463</v>
       </c>
       <c r="C14" t="n">
-        <v>0.498</v>
+        <v>0.662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.471</v>
+        <v>0.475</v>
       </c>
       <c r="E14" t="n">
-        <v>0.422</v>
+        <v>0.415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.393</v>
+        <v>0.707</v>
       </c>
       <c r="G14" t="n">
-        <v>0.512</v>
+        <v>0.569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.471</v>
+        <v>0.479</v>
       </c>
       <c r="I14" t="n">
-        <v>0.326</v>
+        <v>0.308</v>
       </c>
       <c r="J14" t="n">
-        <v>0.607</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.593</v>
+        <v>0.591</v>
       </c>
       <c r="L14" t="n">
-        <v>0.674</v>
+        <v>0.722</v>
       </c>
       <c r="M14" t="n">
-        <v>0.296</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="15">
@@ -994,40 +994,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.902</v>
+        <v>7.011</v>
       </c>
       <c r="C15" t="n">
-        <v>7.84</v>
+        <v>7.935</v>
       </c>
       <c r="D15" t="n">
-        <v>8.552</v>
+        <v>8.643000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>7.791</v>
+        <v>7.803</v>
       </c>
       <c r="F15" t="n">
-        <v>8.221</v>
+        <v>8.253</v>
       </c>
       <c r="G15" t="n">
-        <v>8.145</v>
+        <v>8.105</v>
       </c>
       <c r="H15" t="n">
-        <v>8.869999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="I15" t="n">
-        <v>7.128</v>
+        <v>7.144</v>
       </c>
       <c r="J15" t="n">
-        <v>7.214</v>
+        <v>7.256</v>
       </c>
       <c r="K15" t="n">
-        <v>8.460000000000001</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>7.646</v>
+        <v>7.715</v>
       </c>
       <c r="M15" t="n">
-        <v>5.057</v>
+        <v>5.153</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -435,40 +435,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.309</v>
+        <v>-2.228</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.676</v>
+        <v>-0.443</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.933</v>
+        <v>-12.035</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.344</v>
+        <v>-0.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.013</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.031</v>
+        <v>0.68</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.005</v>
+        <v>-0.275</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.916</v>
+        <v>-0.102</v>
       </c>
       <c r="J2" t="n">
-        <v>-15.28</v>
+        <v>0.295</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.927</v>
+        <v>-0.027</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.713</v>
+        <v>-0.607</v>
       </c>
       <c r="M2" t="n">
-        <v>2.088</v>
+        <v>2.643</v>
       </c>
     </row>
     <row r="3">
@@ -478,40 +478,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.842</v>
+        <v>1.048</v>
       </c>
       <c r="C3" t="n">
-        <v>10.053</v>
+        <v>10.552</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.505</v>
+        <v>-12.301</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.173</v>
+        <v>-1.157</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.709</v>
+        <v>7.089</v>
       </c>
       <c r="G3" t="n">
-        <v>9.396000000000001</v>
+        <v>9.048999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="I3" t="n">
-        <v>15.921</v>
+        <v>17.618</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.514</v>
+        <v>5.572</v>
       </c>
       <c r="K3" t="n">
-        <v>3.877</v>
+        <v>7.425</v>
       </c>
       <c r="L3" t="n">
-        <v>4.371</v>
+        <v>9.618</v>
       </c>
       <c r="M3" t="n">
-        <v>6.853</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +521,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.837</v>
+        <v>-10.816</v>
       </c>
       <c r="C4" t="n">
-        <v>9.763999999999999</v>
+        <v>16.784</v>
       </c>
       <c r="D4" t="n">
-        <v>-31.548</v>
+        <v>-46.319</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.019</v>
+        <v>2.362</v>
       </c>
       <c r="F4" t="n">
-        <v>-14.548</v>
+        <v>1.931</v>
       </c>
       <c r="G4" t="n">
-        <v>5.155</v>
+        <v>6.22</v>
       </c>
       <c r="H4" t="n">
-        <v>-32.299</v>
+        <v>-15.483</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.059</v>
+        <v>4.327</v>
       </c>
       <c r="J4" t="n">
-        <v>-18.107</v>
+        <v>-13.922</v>
       </c>
       <c r="K4" t="n">
-        <v>24.456</v>
+        <v>36.198</v>
       </c>
       <c r="L4" t="n">
-        <v>3.06</v>
+        <v>8.641</v>
       </c>
       <c r="M4" t="n">
-        <v>1.22</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="5">
@@ -564,40 +564,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.983</v>
+        <v>-5.291</v>
       </c>
       <c r="C5" t="n">
-        <v>15.347</v>
+        <v>24.672</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.345</v>
+        <v>-47.002</v>
       </c>
       <c r="E5" t="n">
-        <v>4.888</v>
+        <v>10.657</v>
       </c>
       <c r="F5" t="n">
-        <v>-16.005</v>
+        <v>7.713</v>
       </c>
       <c r="G5" t="n">
-        <v>17.743</v>
+        <v>13.16</v>
       </c>
       <c r="H5" t="n">
-        <v>-29.583</v>
+        <v>-13.925</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.525</v>
+        <v>14.21</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.242</v>
+        <v>-5.329</v>
       </c>
       <c r="K5" t="n">
-        <v>29.167</v>
+        <v>58.04</v>
       </c>
       <c r="L5" t="n">
-        <v>9.747999999999999</v>
+        <v>16.909</v>
       </c>
       <c r="M5" t="n">
-        <v>13.436</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.415</v>
+        <v>0.68</v>
       </c>
       <c r="C6" t="n">
-        <v>101.988</v>
+        <v>143.816</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.545</v>
+        <v>-47.74</v>
       </c>
       <c r="E6" t="n">
-        <v>71.16500000000001</v>
+        <v>150.799</v>
       </c>
       <c r="F6" t="n">
-        <v>47.183</v>
+        <v>108.673</v>
       </c>
       <c r="G6" t="n">
-        <v>32.073</v>
+        <v>42.893</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.409</v>
+        <v>-3.282</v>
       </c>
       <c r="I6" t="n">
-        <v>26.731</v>
+        <v>62.688</v>
       </c>
       <c r="J6" t="n">
-        <v>4.022</v>
+        <v>8.888</v>
       </c>
       <c r="K6" t="n">
-        <v>133.252</v>
+        <v>222.65</v>
       </c>
       <c r="L6" t="n">
-        <v>77.97799999999999</v>
+        <v>87.616</v>
       </c>
       <c r="M6" t="n">
-        <v>7.319</v>
+        <v>7.892</v>
       </c>
     </row>
     <row r="7">
@@ -650,40 +650,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.021</v>
+        <v>0.137</v>
       </c>
       <c r="C7" t="n">
-        <v>15.259</v>
+        <v>19.689</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.564</v>
+        <v>-12.266</v>
       </c>
       <c r="E7" t="n">
-        <v>11.467</v>
+        <v>20.372</v>
       </c>
       <c r="F7" t="n">
-        <v>8.119999999999999</v>
+        <v>15.991</v>
       </c>
       <c r="G7" t="n">
-        <v>5.78</v>
+        <v>7.463</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.996</v>
+        <v>-0.671</v>
       </c>
       <c r="I7" t="n">
-        <v>4.902</v>
+        <v>10.312</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>1.732</v>
       </c>
       <c r="K7" t="n">
-        <v>18.658</v>
+        <v>26.645</v>
       </c>
       <c r="L7" t="n">
-        <v>12.35</v>
+        <v>13.529</v>
       </c>
       <c r="M7" t="n">
-        <v>1.437</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="8">
@@ -693,40 +693,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.865</v>
+        <v>0.776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.991</v>
+        <v>1.008</v>
       </c>
       <c r="D8" t="n">
-        <v>1.088</v>
+        <v>1.162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.973</v>
+        <v>0.949</v>
       </c>
       <c r="F8" t="n">
-        <v>1.035</v>
+        <v>1.083</v>
       </c>
       <c r="G8" t="n">
-        <v>1.014</v>
+        <v>1.024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.127</v>
+        <v>1.039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.883</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.899</v>
+        <v>0.874</v>
       </c>
       <c r="K8" t="n">
-        <v>1.069</v>
+        <v>1.015</v>
       </c>
       <c r="L8" t="n">
-        <v>0.961</v>
+        <v>0.956</v>
       </c>
       <c r="M8" t="n">
-        <v>0.612</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -736,40 +736,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.989</v>
+        <v>-6.226</v>
       </c>
       <c r="C9" t="n">
-        <v>7.324</v>
+        <v>11.627</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.206</v>
+        <v>-21.448</v>
       </c>
       <c r="E9" t="n">
-        <v>3.664</v>
+        <v>12.747</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.133</v>
+        <v>7.386</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.325</v>
+        <v>-0.71</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.926</v>
+        <v>-8.954000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.243</v>
+        <v>3.682</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.457</v>
+        <v>-5.344</v>
       </c>
       <c r="K9" t="n">
-        <v>10.15</v>
+        <v>18.538</v>
       </c>
       <c r="L9" t="n">
-        <v>4.635</v>
+        <v>5.849</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.716</v>
+        <v>-3.289</v>
       </c>
     </row>
     <row r="10">
@@ -779,40 +779,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07099999999999999</v>
+        <v>-0.028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.669</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.218</v>
+        <v>-0.426</v>
       </c>
       <c r="E10" t="n">
-        <v>0.435</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.315</v>
+        <v>0.666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.224</v>
+        <v>0.28</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.207</v>
+        <v>-0.058</v>
       </c>
       <c r="I10" t="n">
-        <v>0.163</v>
+        <v>0.446</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007</v>
+        <v>0.061</v>
       </c>
       <c r="K10" t="n">
-        <v>0.623</v>
+        <v>0.944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.554</v>
+        <v>0.614</v>
       </c>
       <c r="M10" t="n">
-        <v>0.063</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -822,40 +822,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.016</v>
+        <v>-0.007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.147</v>
+        <v>0.188</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.067</v>
+        <v>-0.111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111</v>
+        <v>0.208</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.05</v>
+        <v>-0.013</v>
       </c>
       <c r="I11" t="n">
-        <v>0.048</v>
+        <v>0.118</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="K11" t="n">
-        <v>0.168</v>
+        <v>0.256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.122</v>
+        <v>0.134</v>
       </c>
       <c r="M11" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12">
@@ -865,40 +865,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-42.584</v>
+        <v>-40.147</v>
       </c>
       <c r="C12" t="n">
-        <v>-30.202</v>
+        <v>-30.196</v>
       </c>
       <c r="D12" t="n">
-        <v>-64.238</v>
+        <v>-74.46299999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.964</v>
+        <v>-38.017</v>
       </c>
       <c r="F12" t="n">
-        <v>-39.97</v>
+        <v>-40.61</v>
       </c>
       <c r="G12" t="n">
-        <v>-36.067</v>
+        <v>-36.068</v>
       </c>
       <c r="H12" t="n">
-        <v>-50.672</v>
+        <v>-46.166</v>
       </c>
       <c r="I12" t="n">
-        <v>-42.943</v>
+        <v>-35.435</v>
       </c>
       <c r="J12" t="n">
         <v>-40.828</v>
       </c>
       <c r="K12" t="n">
-        <v>-40.259</v>
+        <v>-29.459</v>
       </c>
       <c r="L12" t="n">
         <v>-33.848</v>
       </c>
       <c r="M12" t="n">
-        <v>-29.365</v>
+        <v>-28.439</v>
       </c>
     </row>
     <row r="13">
@@ -908,40 +908,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.132</v>
+        <v>19.329</v>
       </c>
       <c r="C13" t="n">
-        <v>21.804</v>
+        <v>21.132</v>
       </c>
       <c r="D13" t="n">
-        <v>33.155</v>
+        <v>30.37</v>
       </c>
       <c r="E13" t="n">
-        <v>24.851</v>
+        <v>24.406</v>
       </c>
       <c r="F13" t="n">
-        <v>23.634</v>
+        <v>22.995</v>
       </c>
       <c r="G13" t="n">
-        <v>22.85</v>
+        <v>24.221</v>
       </c>
       <c r="H13" t="n">
-        <v>27.356</v>
+        <v>23.304</v>
       </c>
       <c r="I13" t="n">
-        <v>25.95</v>
+        <v>21.603</v>
       </c>
       <c r="J13" t="n">
-        <v>19.723</v>
+        <v>17.343</v>
       </c>
       <c r="K13" t="n">
-        <v>28.872</v>
+        <v>27.527</v>
       </c>
       <c r="L13" t="n">
-        <v>21.087</v>
+        <v>20.946</v>
       </c>
       <c r="M13" t="n">
-        <v>12.17</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="14">
@@ -951,40 +951,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.463</v>
+        <v>0.386</v>
       </c>
       <c r="C14" t="n">
-        <v>0.662</v>
+        <v>0.708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.475</v>
+        <v>0.465</v>
       </c>
       <c r="E14" t="n">
-        <v>0.415</v>
+        <v>0.46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.707</v>
+        <v>0.822</v>
       </c>
       <c r="G14" t="n">
-        <v>0.569</v>
+        <v>0.517</v>
       </c>
       <c r="H14" t="n">
-        <v>0.479</v>
+        <v>0.574</v>
       </c>
       <c r="I14" t="n">
-        <v>0.308</v>
+        <v>0.386</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="K14" t="n">
-        <v>0.591</v>
+        <v>0.626</v>
       </c>
       <c r="L14" t="n">
-        <v>0.722</v>
+        <v>0.731</v>
       </c>
       <c r="M14" t="n">
-        <v>0.309</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="15">
@@ -994,40 +994,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.011</v>
+        <v>6.363</v>
       </c>
       <c r="C15" t="n">
-        <v>7.935</v>
+        <v>8.061999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>8.643000000000001</v>
+        <v>9.182</v>
       </c>
       <c r="E15" t="n">
-        <v>7.803</v>
+        <v>7.626</v>
       </c>
       <c r="F15" t="n">
-        <v>8.253</v>
+        <v>8.605</v>
       </c>
       <c r="G15" t="n">
-        <v>8.105</v>
+        <v>8.173</v>
       </c>
       <c r="H15" t="n">
-        <v>8.93</v>
+        <v>8.282999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>7.144</v>
+        <v>6.63</v>
       </c>
       <c r="J15" t="n">
-        <v>7.256</v>
+        <v>7.076</v>
       </c>
       <c r="K15" t="n">
-        <v>8.507999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>7.715</v>
+        <v>7.68</v>
       </c>
       <c r="M15" t="n">
-        <v>5.153</v>
+        <v>4.832</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -498,37 +498,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9.292999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>20.554</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.535</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.712</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.958</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>13.419</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -536,37 +536,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-2.584</v>
+        <v>9.933999999999999</v>
       </c>
       <c r="C3">
-        <v>4.693</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="D3">
-        <v>17.316</v>
+        <v>29.139</v>
       </c>
       <c r="E3">
-        <v>-0.263</v>
+        <v>6.129</v>
       </c>
       <c r="F3">
-        <v>13.204</v>
+        <v>20.462</v>
       </c>
       <c r="G3">
-        <v>7.782</v>
+        <v>3.047</v>
       </c>
       <c r="H3">
-        <v>12.04</v>
+        <v>22.093</v>
       </c>
       <c r="I3">
-        <v>13.731</v>
+        <v>2.294</v>
       </c>
       <c r="K3">
-        <v>1.648</v>
+        <v>8.565</v>
       </c>
       <c r="L3">
-        <v>12.883</v>
+        <v>17.975</v>
       </c>
       <c r="M3">
-        <v>3.897</v>
+        <v>6.507</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -574,37 +574,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-11.281</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>24.152</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-33.442</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.688</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17.536</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.437</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-5.218</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.122</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>45.99</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>27.766</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -612,37 +612,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-11.52</v>
+        <v>-11.019</v>
       </c>
       <c r="C5">
-        <v>29.75</v>
+        <v>23.664</v>
       </c>
       <c r="D5">
-        <v>-31.262</v>
+        <v>-28.644</v>
       </c>
       <c r="E5">
-        <v>8.071</v>
+        <v>-1.191</v>
       </c>
       <c r="F5">
-        <v>18.427</v>
+        <v>15.26</v>
       </c>
       <c r="G5">
-        <v>14.611</v>
+        <v>10.569</v>
       </c>
       <c r="H5">
-        <v>-1.958</v>
+        <v>-7.81</v>
       </c>
       <c r="I5">
-        <v>12.281</v>
+        <v>5.096</v>
       </c>
       <c r="K5">
-        <v>54.151</v>
+        <v>40.579</v>
       </c>
       <c r="L5">
-        <v>32.404</v>
+        <v>26.442</v>
       </c>
       <c r="M5">
-        <v>5.805</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -726,37 +726,37 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.783</v>
+        <v>0.779</v>
       </c>
       <c r="C8">
-        <v>1.01</v>
+        <v>1.002</v>
       </c>
       <c r="D8">
-        <v>1.136</v>
+        <v>1.128</v>
       </c>
       <c r="E8">
-        <v>0.9340000000000001</v>
+        <v>0.928</v>
       </c>
       <c r="F8">
-        <v>1.076</v>
+        <v>1.068</v>
       </c>
       <c r="G8">
-        <v>1.003</v>
+        <v>0.996</v>
       </c>
       <c r="H8">
-        <v>1.044</v>
+        <v>1.036</v>
       </c>
       <c r="I8">
-        <v>0.797</v>
+        <v>0.792</v>
       </c>
       <c r="K8">
-        <v>1.009</v>
+        <v>1.002</v>
       </c>
       <c r="L8">
-        <v>0.956</v>
+        <v>0.95</v>
       </c>
       <c r="M8">
-        <v>0.5600000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -764,37 +764,37 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-6.436</v>
+        <v>-6.433</v>
       </c>
       <c r="C9">
-        <v>12.152</v>
+        <v>12.204</v>
       </c>
       <c r="D9">
-        <v>-17.05</v>
+        <v>-16.972</v>
       </c>
       <c r="E9">
-        <v>11.997</v>
+        <v>12.032</v>
       </c>
       <c r="F9">
-        <v>9.992000000000001</v>
+        <v>10.055</v>
       </c>
       <c r="G9">
-        <v>0.315</v>
+        <v>0.364</v>
       </c>
       <c r="H9">
-        <v>-6.734</v>
+        <v>-6.676</v>
       </c>
       <c r="I9">
-        <v>4.691</v>
+        <v>4.701</v>
       </c>
       <c r="K9">
-        <v>19.042</v>
+        <v>19.095</v>
       </c>
       <c r="L9">
-        <v>8.849</v>
+        <v>8.887</v>
       </c>
       <c r="M9">
-        <v>-2.766</v>
+        <v>-2.806</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -802,37 +802,37 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.046</v>
+        <v>-0.053</v>
       </c>
       <c r="C10">
-        <v>0.911</v>
+        <v>0.905</v>
       </c>
       <c r="D10">
-        <v>-0.294</v>
+        <v>-0.298</v>
       </c>
       <c r="E10">
-        <v>0.766</v>
+        <v>0.761</v>
       </c>
       <c r="F10">
-        <v>0.767</v>
+        <v>0.761</v>
       </c>
       <c r="G10">
-        <v>0.308</v>
+        <v>0.303</v>
       </c>
       <c r="H10">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="I10">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="K10">
-        <v>0.947</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="L10">
-        <v>0.74</v>
+        <v>0.734</v>
       </c>
       <c r="M10">
-        <v>0.121</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -840,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="C11">
         <v>0.191</v>
       </c>
       <c r="D11">
-        <v>-0.079</v>
+        <v>-0.081</v>
       </c>
       <c r="E11">
         <v>0.199</v>
@@ -855,22 +855,22 @@
         <v>0.164</v>
       </c>
       <c r="G11">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="H11">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I11">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="K11">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="L11">
         <v>0.163</v>
       </c>
       <c r="M11">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -957,37 +957,37 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>0.391</v>
+        <v>0.398</v>
       </c>
       <c r="C14">
-        <v>0.713</v>
+        <v>0.727</v>
       </c>
       <c r="D14">
-        <v>0.457</v>
+        <v>0.466</v>
       </c>
       <c r="E14">
-        <v>0.458</v>
+        <v>0.467</v>
       </c>
       <c r="F14">
-        <v>0.819</v>
+        <v>0.836</v>
       </c>
       <c r="G14">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H14">
-        <v>0.5629999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="I14">
-        <v>0.373</v>
+        <v>0.381</v>
       </c>
       <c r="K14">
-        <v>0.62</v>
+        <v>0.633</v>
       </c>
       <c r="L14">
-        <v>0.731</v>
+        <v>0.745</v>
       </c>
       <c r="M14">
-        <v>0.322</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -995,37 +995,37 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>6.467</v>
+        <v>6.464</v>
       </c>
       <c r="C15">
-        <v>8.068</v>
+        <v>8.016</v>
       </c>
       <c r="D15">
-        <v>8.965999999999999</v>
+        <v>8.888</v>
       </c>
       <c r="E15">
-        <v>7.535</v>
+        <v>7.5</v>
       </c>
       <c r="F15">
-        <v>8.535</v>
+        <v>8.472</v>
       </c>
       <c r="G15">
-        <v>8.02</v>
+        <v>7.971</v>
       </c>
       <c r="H15">
-        <v>8.311999999999999</v>
+        <v>8.254</v>
       </c>
       <c r="I15">
-        <v>6.565</v>
+        <v>6.555</v>
       </c>
       <c r="K15">
-        <v>8.066000000000001</v>
+        <v>8.012</v>
       </c>
       <c r="L15">
-        <v>7.69</v>
+        <v>7.652</v>
       </c>
       <c r="M15">
-        <v>4.886</v>
+        <v>4.926</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/sectorbreakdown.xlsx
+++ b/outputs/sectorbreakdown.xlsx
@@ -498,37 +498,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.055</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0.078</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.078</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.033</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -536,37 +536,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>9.933999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>9.170999999999999</v>
+        <v>0.022</v>
       </c>
       <c r="D3">
-        <v>29.139</v>
+        <v>0.221</v>
       </c>
       <c r="E3">
-        <v>6.129</v>
+        <v>0.022</v>
       </c>
       <c r="F3">
-        <v>20.462</v>
+        <v>0.131</v>
       </c>
       <c r="G3">
-        <v>3.047</v>
+        <v>0.042</v>
       </c>
       <c r="H3">
-        <v>22.093</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I3">
-        <v>2.294</v>
+        <v>0.097</v>
       </c>
       <c r="K3">
-        <v>8.565</v>
+        <v>0.063</v>
       </c>
       <c r="L3">
-        <v>17.975</v>
+        <v>0.117</v>
       </c>
       <c r="M3">
-        <v>6.507</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -574,37 +574,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.016</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.025</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.007</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -612,37 +612,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>-11.019</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C5">
-        <v>23.664</v>
+        <v>0.298</v>
       </c>
       <c r="D5">
-        <v>-28.644</v>
+        <v>0.554</v>
       </c>
       <c r="E5">
-        <v>-1.191</v>
+        <v>0.049</v>
       </c>
       <c r="F5">
-        <v>15.26</v>
+        <v>0.529</v>
       </c>
       <c r="G5">
-        <v>10.569</v>
+        <v>0.302</v>
       </c>
       <c r="H5">
-        <v>-7.81</v>
+        <v>0.158</v>
       </c>
       <c r="I5">
-        <v>5.096</v>
+        <v>0.303</v>
       </c>
       <c r="K5">
-        <v>40.579</v>
+        <v>0.576</v>
       </c>
       <c r="L5">
-        <v>26.442</v>
+        <v>0.646</v>
       </c>
       <c r="M5">
-        <v>3.12</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -650,37 +650,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.159</v>
+        <v>0.04</v>
       </c>
       <c r="C6">
-        <v>159.231</v>
+        <v>1.681</v>
       </c>
       <c r="D6">
-        <v>-35.339</v>
+        <v>-0.156</v>
       </c>
       <c r="E6">
-        <v>151.652</v>
+        <v>1.592</v>
       </c>
       <c r="F6">
-        <v>140.893</v>
+        <v>1.781</v>
       </c>
       <c r="G6">
-        <v>51.302</v>
+        <v>0.582</v>
       </c>
       <c r="H6">
-        <v>8.435</v>
+        <v>0.176</v>
       </c>
       <c r="I6">
-        <v>73.626</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K6">
-        <v>245.812</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>120.714</v>
+        <v>1.467</v>
       </c>
       <c r="M6">
-        <v>11.458</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -688,37 +688,37 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.031</v>
+        <v>0.007</v>
       </c>
       <c r="C7">
-        <v>20.22</v>
+        <v>0.199</v>
       </c>
       <c r="D7">
-        <v>-8.084</v>
+        <v>-0.031</v>
       </c>
       <c r="E7">
-        <v>19.532</v>
+        <v>0.191</v>
       </c>
       <c r="F7">
-        <v>18.527</v>
+        <v>0.207</v>
       </c>
       <c r="G7">
-        <v>8.335000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H7">
-        <v>1.578</v>
+        <v>0.03</v>
       </c>
       <c r="I7">
-        <v>11.256</v>
+        <v>0.13</v>
       </c>
       <c r="K7">
-        <v>27.108</v>
+        <v>0.267</v>
       </c>
       <c r="L7">
-        <v>16.539</v>
+        <v>0.181</v>
       </c>
       <c r="M7">
-        <v>2.119</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -726,37 +726,37 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.779</v>
+        <v>0.769</v>
       </c>
       <c r="C8">
-        <v>1.002</v>
+        <v>1.009</v>
       </c>
       <c r="D8">
-        <v>1.128</v>
+        <v>1.14</v>
       </c>
       <c r="E8">
-        <v>0.928</v>
+        <v>0.925</v>
       </c>
       <c r="F8">
-        <v>1.068</v>
+        <v>1.073</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H8">
-        <v>1.036</v>
+        <v>1.028</v>
       </c>
       <c r="I8">
-        <v>0.792</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K8">
-        <v>1.002</v>
+        <v>1.013</v>
       </c>
       <c r="L8">
-        <v>0.95</v>
+        <v>0.965</v>
       </c>
       <c r="M8">
-        <v>0.5580000000000001</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -764,37 +764,37 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>-6.433</v>
+        <v>-0.058</v>
       </c>
       <c r="C9">
-        <v>12.204</v>
+        <v>0.118</v>
       </c>
       <c r="D9">
-        <v>-16.972</v>
+        <v>-0.12</v>
       </c>
       <c r="E9">
-        <v>12.032</v>
+        <v>0.116</v>
       </c>
       <c r="F9">
-        <v>10.055</v>
+        <v>0.122</v>
       </c>
       <c r="G9">
-        <v>0.364</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H9">
-        <v>-6.676</v>
+        <v>-0.052</v>
       </c>
       <c r="I9">
-        <v>4.701</v>
+        <v>0.062</v>
       </c>
       <c r="K9">
-        <v>19.095</v>
+        <v>0.186</v>
       </c>
       <c r="L9">
-        <v>8.887</v>
+        <v>0.103</v>
       </c>
       <c r="M9">
-        <v>-2.806</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -802,37 +802,37 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.053</v>
+        <v>-0.042</v>
       </c>
       <c r="C10">
-        <v>0.905</v>
+        <v>0.844</v>
       </c>
       <c r="D10">
-        <v>-0.298</v>
+        <v>-0.148</v>
       </c>
       <c r="E10">
-        <v>0.761</v>
+        <v>0.733</v>
       </c>
       <c r="F10">
-        <v>0.761</v>
+        <v>0.835</v>
       </c>
       <c r="G10">
-        <v>0.303</v>
+        <v>0.306</v>
       </c>
       <c r="H10">
-        <v>0.022</v>
+        <v>0.064</v>
       </c>
       <c r="I10">
-        <v>0.449</v>
+        <v>0.501</v>
       </c>
       <c r="K10">
-        <v>0.9419999999999999</v>
+        <v>0.919</v>
       </c>
       <c r="L10">
-        <v>0.734</v>
+        <v>0.782</v>
       </c>
       <c r="M10">
-        <v>0.108</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -840,37 +840,37 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="C11">
-        <v>0.191</v>
+        <v>0.182</v>
       </c>
       <c r="D11">
-        <v>-0.081</v>
+        <v>-0.04</v>
       </c>
       <c r="E11">
-        <v>0.199</v>
+        <v>0.19</v>
       </c>
       <c r="F11">
-        <v>0.164</v>
+        <v>0.179</v>
       </c>
       <c r="G11">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="H11">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="I11">
-        <v>0.129</v>
+        <v>0.141</v>
       </c>
       <c r="K11">
-        <v>0.26</v>
+        <v>0.249</v>
       </c>
       <c r="L11">
-        <v>0.163</v>
+        <v>0.171</v>
       </c>
       <c r="M11">
-        <v>0.019</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -878,40 +878,40 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>-40.155</v>
+        <v>-0.401</v>
       </c>
       <c r="C12">
-        <v>-30.19</v>
+        <v>-0.302</v>
       </c>
       <c r="D12">
-        <v>-74.59</v>
+        <v>-0.747</v>
       </c>
       <c r="E12">
-        <v>-37.944</v>
+        <v>-0.379</v>
       </c>
       <c r="F12">
-        <v>-40.603</v>
+        <v>-0.406</v>
       </c>
       <c r="G12">
-        <v>-36.066</v>
+        <v>-0.361</v>
       </c>
       <c r="H12">
-        <v>-46.165</v>
+        <v>-0.462</v>
       </c>
       <c r="I12">
-        <v>-35.728</v>
+        <v>-0.357</v>
       </c>
       <c r="J12">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="K12">
-        <v>-29.461</v>
+        <v>-0.295</v>
       </c>
       <c r="L12">
-        <v>-33.875</v>
+        <v>-0.339</v>
       </c>
       <c r="M12">
-        <v>-28.312</v>
+        <v>-0.282</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -919,37 +919,37 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>19.225</v>
+        <v>0.189</v>
       </c>
       <c r="C13">
-        <v>21.188</v>
+        <v>0.217</v>
       </c>
       <c r="D13">
-        <v>30.683</v>
+        <v>0.31</v>
       </c>
       <c r="E13">
-        <v>24.294</v>
+        <v>0.24</v>
       </c>
       <c r="F13">
-        <v>22.966</v>
+        <v>0.23</v>
       </c>
       <c r="G13">
-        <v>24.087</v>
+        <v>0.237</v>
       </c>
       <c r="H13">
-        <v>23.745</v>
+        <v>0.233</v>
       </c>
       <c r="I13">
-        <v>22.715</v>
+        <v>0.228</v>
       </c>
       <c r="K13">
-        <v>27.663</v>
+        <v>0.274</v>
       </c>
       <c r="L13">
-        <v>21.11</v>
+        <v>0.212</v>
       </c>
       <c r="M13">
-        <v>9.933999999999999</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -957,37 +957,37 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>0.398</v>
+        <v>0.388</v>
       </c>
       <c r="C14">
+        <v>0.675</v>
+      </c>
+      <c r="D14">
+        <v>0.44</v>
+      </c>
+      <c r="E14">
+        <v>0.456</v>
+      </c>
+      <c r="F14">
+        <v>0.805</v>
+      </c>
+      <c r="G14">
+        <v>0.506</v>
+      </c>
+      <c r="H14">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.375</v>
+      </c>
+      <c r="K14">
+        <v>0.616</v>
+      </c>
+      <c r="L14">
         <v>0.727</v>
       </c>
-      <c r="D14">
-        <v>0.466</v>
-      </c>
-      <c r="E14">
-        <v>0.467</v>
-      </c>
-      <c r="F14">
-        <v>0.836</v>
-      </c>
-      <c r="G14">
-        <v>0.519</v>
-      </c>
-      <c r="H14">
-        <v>0.575</v>
-      </c>
-      <c r="I14">
-        <v>0.381</v>
-      </c>
-      <c r="K14">
-        <v>0.633</v>
-      </c>
-      <c r="L14">
-        <v>0.745</v>
-      </c>
       <c r="M14">
-        <v>0.329</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -995,37 +995,37 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>6.464</v>
+        <v>0.065</v>
       </c>
       <c r="C15">
-        <v>8.016</v>
+        <v>0.081</v>
       </c>
       <c r="D15">
-        <v>8.888</v>
+        <v>0.089</v>
       </c>
       <c r="E15">
-        <v>7.5</v>
+        <v>0.075</v>
       </c>
       <c r="F15">
-        <v>8.472</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G15">
-        <v>7.971</v>
+        <v>0.079</v>
       </c>
       <c r="H15">
-        <v>8.254</v>
+        <v>0.082</v>
       </c>
       <c r="I15">
-        <v>6.555</v>
+        <v>0.068</v>
       </c>
       <c r="K15">
-        <v>8.012</v>
+        <v>0.081</v>
       </c>
       <c r="L15">
-        <v>7.652</v>
+        <v>0.078</v>
       </c>
       <c r="M15">
-        <v>4.926</v>
+        <v>0.051</v>
       </c>
     </row>
   </sheetData>
